--- a/data/hotels_by_city/Denver/Denver_shard_134.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_134.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33668-d3498205-Reviews-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Express-Hotel-Suites-Denver-North-Thornton.h5286947.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1865 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r565669653-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>3498205</t>
+  </si>
+  <si>
+    <t>565669653</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>The breakfast was good with a lot of choice.The bed was comfy and the room was clean.The location is close to restaurants in walking distance, also a gas station with a 24 hour store in it.Fast check in and out, friendly staff.All and all a good place to stay.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r565365359-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>565365359</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnificent hotel and staff! </t>
+  </si>
+  <si>
+    <t>I've been here for a week of business, and I truly appreciate the staff and accommodations! Enormous breakfast choices each morning, and each staff member is so very friendly and helpful. The indoor pool and hot tub is a refreshing treat at the end of a long day! Fresh coffee is always available, along with a mini store in the lobby that's stocked with food and beverages. The room is well appointed and extremely clean and comfortable. The king size bed is outstanding, and the multiple soft and firm pillows are a perfect combination. Fantastic location off I-25 on 120th. Numerous restaurants all around! This is a great hotel and the consistency of friendly staff is much appreciated! I highly recommend staying here for business or pleasure! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I've been here for a week of business, and I truly appreciate the staff and accommodations! Enormous breakfast choices each morning, and each staff member is so very friendly and helpful. The indoor pool and hot tub is a refreshing treat at the end of a long day! Fresh coffee is always available, along with a mini store in the lobby that's stocked with food and beverages. The room is well appointed and extremely clean and comfortable. The king size bed is outstanding, and the multiple soft and firm pillows are a perfect combination. Fantastic location off I-25 on 120th. Numerous restaurants all around! This is a great hotel and the consistency of friendly staff is much appreciated! I highly recommend staying here for business or pleasure! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r562379642-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>562379642</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Chosen due to good reviews</t>
+  </si>
+  <si>
+    <t>Overall - Stay was nice and comfortable. We will stay here again if visiting Denver.
+Room was clean and comfortable. 
+Breakfast was good. I was happy that they served a warm breakfast. Saves us the morning meal expenses for the trip. Breakfast hours ended promptly at 9:30am on weekdays and 10am on weekends. I've included 4 photos of the breakfast bar. On the warm side, they had biscuits and gravy everyday and switched around the other items which included, simple veggie omelets, cheese omelets, scrambled eggs, turkey sausage patties, pork sausage links, and bacon (yum - it was good and crispy).
+They had HBO which was nice. It's nice to have the unedited and uninterrupted channels.
+We were out and about for most of the 4 days so we did not get a chance to try the pool. 
+Only minor issues:
+When we checked in around 10pm, we got to the room and noticed something had splattered on the ceiling. Other guests! ughhhh.  It was a little gross but not horrible. I spoke to front desk next morning. They promptly sent someone up with a ladder to clean. It looked good when done. 
+On checkout day, checkout time is 11am. We got a knock on the door at 9am waking us up. It was  housekeeping. Ok, I get it, they are itching to get in there and clean the room. We sent them away. So we get up and start...Overall - Stay was nice and comfortable. We will stay here again if visiting Denver.Room was clean and comfortable. Breakfast was good. I was happy that they served a warm breakfast. Saves us the morning meal expenses for the trip. Breakfast hours ended promptly at 9:30am on weekdays and 10am on weekends. I've included 4 photos of the breakfast bar. On the warm side, they had biscuits and gravy everyday and switched around the other items which included, simple veggie omelets, cheese omelets, scrambled eggs, turkey sausage patties, pork sausage links, and bacon (yum - it was good and crispy).They had HBO which was nice. It's nice to have the unedited and uninterrupted channels.We were out and about for most of the 4 days so we did not get a chance to try the pool. Only minor issues:When we checked in around 10pm, we got to the room and noticed something had splattered on the ceiling. Other guests! ughhhh.  It was a little gross but not horrible. I spoke to front desk next morning. They promptly sent someone up with a ladder to clean. It looked good when done. On checkout day, checkout time is 11am. We got a knock on the door at 9am waking us up. It was  housekeeping. Ok, I get it, they are itching to get in there and clean the room. We sent them away. So we get up and start prepping for checkout. Then at 10:30am, another knock. Now, that is just bugging. We felt rushed out of the room. Not a good feeling for an otherwise good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Overall - Stay was nice and comfortable. We will stay here again if visiting Denver.
+Room was clean and comfortable. 
+Breakfast was good. I was happy that they served a warm breakfast. Saves us the morning meal expenses for the trip. Breakfast hours ended promptly at 9:30am on weekdays and 10am on weekends. I've included 4 photos of the breakfast bar. On the warm side, they had biscuits and gravy everyday and switched around the other items which included, simple veggie omelets, cheese omelets, scrambled eggs, turkey sausage patties, pork sausage links, and bacon (yum - it was good and crispy).
+They had HBO which was nice. It's nice to have the unedited and uninterrupted channels.
+We were out and about for most of the 4 days so we did not get a chance to try the pool. 
+Only minor issues:
+When we checked in around 10pm, we got to the room and noticed something had splattered on the ceiling. Other guests! ughhhh.  It was a little gross but not horrible. I spoke to front desk next morning. They promptly sent someone up with a ladder to clean. It looked good when done. 
+On checkout day, checkout time is 11am. We got a knock on the door at 9am waking us up. It was  housekeeping. Ok, I get it, they are itching to get in there and clean the room. We sent them away. So we get up and start...Overall - Stay was nice and comfortable. We will stay here again if visiting Denver.Room was clean and comfortable. Breakfast was good. I was happy that they served a warm breakfast. Saves us the morning meal expenses for the trip. Breakfast hours ended promptly at 9:30am on weekdays and 10am on weekends. I've included 4 photos of the breakfast bar. On the warm side, they had biscuits and gravy everyday and switched around the other items which included, simple veggie omelets, cheese omelets, scrambled eggs, turkey sausage patties, pork sausage links, and bacon (yum - it was good and crispy).They had HBO which was nice. It's nice to have the unedited and uninterrupted channels.We were out and about for most of the 4 days so we did not get a chance to try the pool. Only minor issues:When we checked in around 10pm, we got to the room and noticed something had splattered on the ceiling. Other guests! ughhhh.  It was a little gross but not horrible. I spoke to front desk next morning. They promptly sent someone up with a ladder to clean. It looked good when done. On checkout day, checkout time is 11am. We got a knock on the door at 9am waking us up. It was  housekeeping. Ok, I get it, they are itching to get in there and clean the room. We sent them away. So we get up and start prepping for checkout. Then at 10:30am, another knock. Now, that is just bugging. We felt rushed out of the room. Not a good feeling for an otherwise good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r530930712-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>530930712</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>First Time Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn Express overnight while visiting our son in Colorado.  The property was fairly easy to find right off of I-25.  There were a couple of restaurants and some shopping within walking distance.  We were treated well as Platinum IHG members and upgraded to a suite with an extra sitting room which was nice.  The front desk staff even offered breakfast for my son which was nice even though we didn't have a chance to partake.  The room was quiet and beds and pillows were okay.  The room seemed to be fairly clean but dimly lit as are most hotel rooms.  We did not have a chance to use the pool or fitness center, but it looked nice.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn Express overnight while visiting our son in Colorado.  The property was fairly easy to find right off of I-25.  There were a couple of restaurants and some shopping within walking distance.  We were treated well as Platinum IHG members and upgraded to a suite with an extra sitting room which was nice.  The front desk staff even offered breakfast for my son which was nice even though we didn't have a chance to partake.  The room was quiet and beds and pillows were okay.  The room seemed to be fairly clean but dimly lit as are most hotel rooms.  We did not have a chance to use the pool or fitness center, but it looked nice.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r520573164-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>520573164</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nice and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, fresh hotel room. Clean and quiet. Just has a view of the parking lot, but worked out fine for us. Complimentary breakfast, too. Walking distance to Starbucks and really cute restaurants. We liked First Watch.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r512882285-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>512882285</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Clean and Quiet Rooms</t>
+  </si>
+  <si>
+    <t>I moved to this hotel five minutes after checking in at the very sad Hampton Inn next door. This hotel was much more current, WAY quieter, and was clean and comfortable. I did not eat the breakfast, but slept well during my stay. My only complaint was the room was very dim with low-watt bulbs, even with all the lights turned on.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r502867663-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>502867663</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised</t>
+  </si>
+  <si>
+    <t>We usually stay at the Omni Resort in Broomfield, but this time we stayed at the Holiday Inn in Thornton because of the price and location. I had read some reviews, which were mostly complimentary.We stayed for five days and were very pleased. Holiday Inn has come a long way since we started staying in the 1970s. Our room was a King suite (not sure why they call it a suite). It was a nice size with all the amenities we would want or need including a fridge, a safe deposit box, granite counters, good Internet, a King bed, a big TV with lots of stations, good A/C, etc. It was very clean and quiet.A full breakfast was included, fairly tasty, except for the orange juice.The location, just off I-25 was very convenient to Denver and restaurants. We will stay at this Holiday Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We usually stay at the Omni Resort in Broomfield, but this time we stayed at the Holiday Inn in Thornton because of the price and location. I had read some reviews, which were mostly complimentary.We stayed for five days and were very pleased. Holiday Inn has come a long way since we started staying in the 1970s. Our room was a King suite (not sure why they call it a suite). It was a nice size with all the amenities we would want or need including a fridge, a safe deposit box, granite counters, good Internet, a King bed, a big TV with lots of stations, good A/C, etc. It was very clean and quiet.A full breakfast was included, fairly tasty, except for the orange juice.The location, just off I-25 was very convenient to Denver and restaurants. We will stay at this Holiday Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r501285199-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>501285199</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Have stayed here many times in the past. This might be my last visit.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel four times in the past year with good results. This trip was quite disappointing. The check-in was fine and the hotel staff was decent. The room was not very clean, was missing pillows, and had zero toilet paper in the bathroom. Two empty rolls and no extras anywhere. Unfortunately didn't bother to check prior to visiting the restroom. Staff took care of the problem quickly but did not apologize for the oversight. Bathroom and shower had not been cleaned prior to us getting there. Always nice to get in the shower and find lots of hair on the walls and shower curtain that don't belong to you. Gross. Bed was extremely uncomfortable and not up to holiday in express standards. Two nights here resulted in lots of back pain for both my wife and I. Breakfast area is quite small and gets crowded quickly. Food was OK but selection was greatly limited. Not as good as it has been in the past. Guess they decided to park down there selections a lot. Didn't use any other amenities on site as we were quite busy. As we have experienced in the past the parking lot fills up very quickly and is difficult to find spots in the actual lot. Sometimes have to park to the north in an adjacent lot. Quite a walk in the dark and not very comforting leaving a vehicle in that...I have stayed at this hotel four times in the past year with good results. This trip was quite disappointing. The check-in was fine and the hotel staff was decent. The room was not very clean, was missing pillows, and had zero toilet paper in the bathroom. Two empty rolls and no extras anywhere. Unfortunately didn't bother to check prior to visiting the restroom. Staff took care of the problem quickly but did not apologize for the oversight. Bathroom and shower had not been cleaned prior to us getting there. Always nice to get in the shower and find lots of hair on the walls and shower curtain that don't belong to you. Gross. Bed was extremely uncomfortable and not up to holiday in express standards. Two nights here resulted in lots of back pain for both my wife and I. Breakfast area is quite small and gets crowded quickly. Food was OK but selection was greatly limited. Not as good as it has been in the past. Guess they decided to park down there selections a lot. Didn't use any other amenities on site as we were quite busy. As we have experienced in the past the parking lot fills up very quickly and is difficult to find spots in the actual lot. Sometimes have to park to the north in an adjacent lot. Quite a walk in the dark and not very comforting leaving a vehicle in that situation. I think this will be our last day here and we will find another hotel in the area. It was that bad of a visit over three days. Skip it and find someplace elseMoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel four times in the past year with good results. This trip was quite disappointing. The check-in was fine and the hotel staff was decent. The room was not very clean, was missing pillows, and had zero toilet paper in the bathroom. Two empty rolls and no extras anywhere. Unfortunately didn't bother to check prior to visiting the restroom. Staff took care of the problem quickly but did not apologize for the oversight. Bathroom and shower had not been cleaned prior to us getting there. Always nice to get in the shower and find lots of hair on the walls and shower curtain that don't belong to you. Gross. Bed was extremely uncomfortable and not up to holiday in express standards. Two nights here resulted in lots of back pain for both my wife and I. Breakfast area is quite small and gets crowded quickly. Food was OK but selection was greatly limited. Not as good as it has been in the past. Guess they decided to park down there selections a lot. Didn't use any other amenities on site as we were quite busy. As we have experienced in the past the parking lot fills up very quickly and is difficult to find spots in the actual lot. Sometimes have to park to the north in an adjacent lot. Quite a walk in the dark and not very comforting leaving a vehicle in that...I have stayed at this hotel four times in the past year with good results. This trip was quite disappointing. The check-in was fine and the hotel staff was decent. The room was not very clean, was missing pillows, and had zero toilet paper in the bathroom. Two empty rolls and no extras anywhere. Unfortunately didn't bother to check prior to visiting the restroom. Staff took care of the problem quickly but did not apologize for the oversight. Bathroom and shower had not been cleaned prior to us getting there. Always nice to get in the shower and find lots of hair on the walls and shower curtain that don't belong to you. Gross. Bed was extremely uncomfortable and not up to holiday in express standards. Two nights here resulted in lots of back pain for both my wife and I. Breakfast area is quite small and gets crowded quickly. Food was OK but selection was greatly limited. Not as good as it has been in the past. Guess they decided to park down there selections a lot. Didn't use any other amenities on site as we were quite busy. As we have experienced in the past the parking lot fills up very quickly and is difficult to find spots in the actual lot. Sometimes have to park to the north in an adjacent lot. Quite a walk in the dark and not very comforting leaving a vehicle in that situation. I think this will be our last day here and we will find another hotel in the area. It was that bad of a visit over three days. Skip it and find someplace elseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r500560363-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>500560363</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great breakfast</t>
+  </si>
+  <si>
+    <t>We stayed one night as we were passing through.  The lobby was nice and staff was friendly.  We close a room on the 4th floor.  When we arrived on the floor there was a very strong cleaner smell (which could be worse but it burned my nose).  The room was ok.  Nice large bathroom.  Older carpeting and furniture. The chair in the room had a mismatched cushion and some fraying.   It was hot in the room it took a while for the air conditioning to cool it down. We had a beautiful view of the mountains from our room which was a nice bonus.  There are many restaurants in the area to choose from so it's in a good location right off the interstate.  The highlight of our was breakfast. Many options to choose from.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed one night as we were passing through.  The lobby was nice and staff was friendly.  We close a room on the 4th floor.  When we arrived on the floor there was a very strong cleaner smell (which could be worse but it burned my nose).  The room was ok.  Nice large bathroom.  Older carpeting and furniture. The chair in the room had a mismatched cushion and some fraying.   It was hot in the room it took a while for the air conditioning to cool it down. We had a beautiful view of the mountains from our room which was a nice bonus.  There are many restaurants in the area to choose from so it's in a good location right off the interstate.  The highlight of our was breakfast. Many options to choose from.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r488738865-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>488738865</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>CLEAN comfortable stay</t>
+  </si>
+  <si>
+    <t>Busy weekend of basketball tournaments near...kids didn't get a chance to hang at the pool this time.  We checked in late evening with take-out dinner in had, process of getting to rooms was quick and painless.  Room was comfortable and MOST IMPORTANTLY, CLEAN! Breakfast choices were average and we were out the door again quickly.  Close to dining and shopping options. Would recommend and stay here again.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r485299116-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>485299116</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>My husband and I where on a trip out to Colorado for our 5 yr wedding anniversary. We decided to stay at holiday inn Express in North Denver. The hotel is beautiful in side and out nice lobby and very modern looking hotel. The front desk was very friendly and we enjoyed the free 24/7 coffee they offer. The room was quipped a mountain view on the top floor and a spacious king bed room,  the room also had refigerator and microwave and a flat screen TV. The area was very nice as well with lots of places to eat near by. The breakfast was wonderful with biscuits and gravy, omletes​, cinnamon rolls, fruit, yougurt I mean they had a variety and it was delicious. The one complaint I had was when we came down the coffee machines where empty and the juice machines and it took them a good 15min to refill them, that is something that needs to be filled right away or at least with in a couple minutes. So otherwise the stay was pretty great and enjoyable. I would recommend this hotel for anyone who is staying in the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I where on a trip out to Colorado for our 5 yr wedding anniversary. We decided to stay at holiday inn Express in North Denver. The hotel is beautiful in side and out nice lobby and very modern looking hotel. The front desk was very friendly and we enjoyed the free 24/7 coffee they offer. The room was quipped a mountain view on the top floor and a spacious king bed room,  the room also had refigerator and microwave and a flat screen TV. The area was very nice as well with lots of places to eat near by. The breakfast was wonderful with biscuits and gravy, omletes​, cinnamon rolls, fruit, yougurt I mean they had a variety and it was delicious. The one complaint I had was when we came down the coffee machines where empty and the juice machines and it took them a good 15min to refill them, that is something that needs to be filled right away or at least with in a couple minutes. So otherwise the stay was pretty great and enjoyable. I would recommend this hotel for anyone who is staying in the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r477235557-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>477235557</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent all around!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean rooms!!! Pleasant staff especially Sam at the front desk. She was always very welcoming and friendly. We will return on our next vacation. The breakfast was also very good. Hotel is very quiet. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r456510289-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>456510289</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Clean and Conveniently Located</t>
+  </si>
+  <si>
+    <t>The room was clean and the beds were comfortable. It was on the first floor, which I don't recommend staying on because of the additional noise, but it was our only option. The breakfast was good and the staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean and the beds were comfortable. It was on the first floor, which I don't recommend staying on because of the additional noise, but it was our only option. The breakfast was good and the staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r445217584-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>445217584</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>A Nice Place</t>
+  </si>
+  <si>
+    <t>It was a spur of the moment decision to stay here.  We chose this hotel because they do allow dogs under 35 lbs  ($25 extra/nt). Staff aren't the friendliest but they get the job done. Rooms are spacious (1st floor) with vaulted ceilings that make the room feel huge! Over all very clean and worth the stay...especially when driving long distances. As with all HI express hotels, continental breakfast is available. Biscuits and gravy, powdered scrambled eggs, ham, cinnamon buns, cereal, yogurt, assortment of breads and muffins, juices, coffee and milk! There's a good selection and you won't go hungry. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded December 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2016</t>
+  </si>
+  <si>
+    <t>It was a spur of the moment decision to stay here.  We chose this hotel because they do allow dogs under 35 lbs  ($25 extra/nt). Staff aren't the friendliest but they get the job done. Rooms are spacious (1st floor) with vaulted ceilings that make the room feel huge! Over all very clean and worth the stay...especially when driving long distances. As with all HI express hotels, continental breakfast is available. Biscuits and gravy, powdered scrambled eggs, ham, cinnamon buns, cereal, yogurt, assortment of breads and muffins, juices, coffee and milk! There's a good selection and you won't go hungry. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r442487578-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>442487578</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Two Blocks to I-25</t>
+  </si>
+  <si>
+    <t>We decided to celebrate after our house was sold and our new house became ready 10 weeks later.  This hotel is close to home, so there wasn't really a reason to stay there, until now. It is nestled just off Grant, and a bike path runs behind it. It is a quaint facility, about five years old.  It is two blocks from I-25, so you don't hear traffic noise, but there is easy access to the highway.  Across the street to the south are many great, new restaurants - check them out! We have a little dog, and stayed on the first floor.  It was easy to get out and back in to walk him.  Our room had high ceilings and modern decor - very fresh and new.  We had a refrigerator, microwave and a king sized bed.  We stayed in a suite, so it had a couch and coffee table.We both visited the indoor hot tub, (one at a time since you can't leave your dog) and it was very nice.  They also have an indoor pool.  It faces south, so there's lots of sunshine.  This is a great place to stay in a great neighborhood (mine!) and I would recommend it to anyone passing through.  Enjoy our state!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>We decided to celebrate after our house was sold and our new house became ready 10 weeks later.  This hotel is close to home, so there wasn't really a reason to stay there, until now. It is nestled just off Grant, and a bike path runs behind it. It is a quaint facility, about five years old.  It is two blocks from I-25, so you don't hear traffic noise, but there is easy access to the highway.  Across the street to the south are many great, new restaurants - check them out! We have a little dog, and stayed on the first floor.  It was easy to get out and back in to walk him.  Our room had high ceilings and modern decor - very fresh and new.  We had a refrigerator, microwave and a king sized bed.  We stayed in a suite, so it had a couch and coffee table.We both visited the indoor hot tub, (one at a time since you can't leave your dog) and it was very nice.  They also have an indoor pool.  It faces south, so there's lots of sunshine.  This is a great place to stay in a great neighborhood (mine!) and I would recommend it to anyone passing through.  Enjoy our state!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r439049451-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>439049451</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Reliable Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I like staying at Holiday Inns as you know pretty much what to expect. No exception here except that this is a Suites too, so there is a frig, microwave and Keurig machine in the room. The hotel is very quite and breakfast had a full variety of foods.  Staff is friendly and let me check in at noon.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>I like staying at Holiday Inns as you know pretty much what to expect. No exception here except that this is a Suites too, so there is a frig, microwave and Keurig machine in the room. The hotel is very quite and breakfast had a full variety of foods.  Staff is friendly and let me check in at noon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r435733379-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>435733379</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Average Hotel High Price</t>
+  </si>
+  <si>
+    <t>Its a nice average hotel as far as HIE's go. The Courtesy breakfast was OK, nothing unique that other HIE's don't offer. Room was clean with good hot water and comfortable beds. Good parking. I booked the hotel at about $136 but found the second night was at $166 and the third night was about $177. Way too high for a HI Express. I checked out after the first night and went next door for $145. Won't be back. Offensively marketed price.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Its a nice average hotel as far as HIE's go. The Courtesy breakfast was OK, nothing unique that other HIE's don't offer. Room was clean with good hot water and comfortable beds. Good parking. I booked the hotel at about $136 but found the second night was at $166 and the third night was about $177. Way too high for a HI Express. I checked out after the first night and went next door for $145. Won't be back. Offensively marketed price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r434743922-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>434743922</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>I had to travel to the area on business. The hotel is very modern, clean and comfortable.The staff is what put it over the top for me. From the General Manager to team members, they were extremely helpful and very friendly!!I would definitely recommend this hotel to family and friends when visiting the area, as well as business colleagues!!MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>I had to travel to the area on business. The hotel is very modern, clean and comfortable.The staff is what put it over the top for me. From the General Manager to team members, they were extremely helpful and very friendly!!I would definitely recommend this hotel to family and friends when visiting the area, as well as business colleagues!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r410049412-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>410049412</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>We spent one night here following the Dead &amp; co show in Boulder.  It's a very convenient location to lots of places, great shopping, etc. The hotel was basically brand new. The rooms are super nice and quiet. We had no complaints at all, the beds are very comfortable and the free coffee and honor system "store" were a nice addition for late night munchies or breakfast. We stayed on the first floor on the side and didn't hear the highway at all. In the morning we saw a beautiful, red hot air balloon land in the field right next to the hotel. It was a real treat. Super friendly hotel staff, nice furnishings. We had a great time here!  I will definitely return the next time I'm in Denver/Thornton.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>We spent one night here following the Dead &amp; co show in Boulder.  It's a very convenient location to lots of places, great shopping, etc. The hotel was basically brand new. The rooms are super nice and quiet. We had no complaints at all, the beds are very comfortable and the free coffee and honor system "store" were a nice addition for late night munchies or breakfast. We stayed on the first floor on the side and didn't hear the highway at all. In the morning we saw a beautiful, red hot air balloon land in the field right next to the hotel. It was a real treat. Super friendly hotel staff, nice furnishings. We had a great time here!  I will definitely return the next time I'm in Denver/Thornton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r405780053-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>405780053</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel and great breakfast</t>
+  </si>
+  <si>
+    <t>Hotel is very nice, rooms are plenty big and the breakfast was great!  Only small complaint is the bed was a little too hard for my liking.  I paid a lot more for a worse hotel just a few miles away so this is worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is very nice, rooms are plenty big and the breakfast was great!  Only small complaint is the bed was a little too hard for my liking.  I paid a lot more for a worse hotel just a few miles away so this is worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r399566642-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>399566642</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>Stopped here for a quick one night stay on our way back to Oklahoma. We used our rewards points and were able to get an upgrade to a kind suite that was huge!! Beautiful hotel and it was spotless. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Stopped here for a quick one night stay on our way back to Oklahoma. We used our rewards points and were able to get an upgrade to a kind suite that was huge!! Beautiful hotel and it was spotless. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r389528439-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>389528439</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Nice clean rooms and better than average free breakfast! Indoor pool and a small workout room. Rooms are clean and include a small fridge and microwave. Only about 25 minutes to Denver and lots of places to eat around the hotel. Tonya at the front desk was a total gem! Helpful and friendly about places to eat and nearby parks to take the kids! Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Nice clean rooms and better than average free breakfast! Indoor pool and a small workout room. Rooms are clean and include a small fridge and microwave. Only about 25 minutes to Denver and lots of places to eat around the hotel. Tonya at the front desk was a total gem! Helpful and friendly about places to eat and nearby parks to take the kids! Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r385770911-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>385770911</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>I expected better</t>
+  </si>
+  <si>
+    <t>After 16 hours on the road and a total of 24 without sleep,  we were exhausted.  We didn't want to stay downtown, even though I've had great experiences with the area so we came north. It was between the Hampton and holiday and holiday won even with the absurd prices because of past experiences with other holiday inns. This place does not deserve the title. Incredibly disappointed: for nearly 170 dollars we had to wait on the only hot and smelly elevator,  parking was unprotected and far from our room, no amenities on 4th floor at all, old toenail and hair in bathroom,  tv remote did not work, rather large gap between door and floor, pillows were worse than the ones I just threw out from home (very lumpy and flat), customer service was nothing great, breakfast crowded and so so.....overall, more like an econo lodge than a holiday inn. Very disappointed,  normally the staff at holiday inns have made the difference for us when we've had the rare problem.  I went down stairs to try and address the issues the evening we were staying but couldn't find anyone. Up until this location, I've been a loyal customer to the brand but this place has me saying let's try the Hampton. I have grown to expect much better than what we got here and I don't believe in paying this much when I can get a dirty room with sad...After 16 hours on the road and a total of 24 without sleep,  we were exhausted.  We didn't want to stay downtown, even though I've had great experiences with the area so we came north. It was between the Hampton and holiday and holiday won even with the absurd prices because of past experiences with other holiday inns. This place does not deserve the title. Incredibly disappointed: for nearly 170 dollars we had to wait on the only hot and smelly elevator,  parking was unprotected and far from our room, no amenities on 4th floor at all, old toenail and hair in bathroom,  tv remote did not work, rather large gap between door and floor, pillows were worse than the ones I just threw out from home (very lumpy and flat), customer service was nothing great, breakfast crowded and so so.....overall, more like an econo lodge than a holiday inn. Very disappointed,  normally the staff at holiday inns have made the difference for us when we've had the rare problem.  I went down stairs to try and address the issues the evening we were staying but couldn't find anyone. Up until this location, I've been a loyal customer to the brand but this place has me saying let's try the Hampton. I have grown to expect much better than what we got here and I don't believe in paying this much when I can get a dirty room with sad pillows etc for half the price by going to some economy place or no name motel. MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>After 16 hours on the road and a total of 24 without sleep,  we were exhausted.  We didn't want to stay downtown, even though I've had great experiences with the area so we came north. It was between the Hampton and holiday and holiday won even with the absurd prices because of past experiences with other holiday inns. This place does not deserve the title. Incredibly disappointed: for nearly 170 dollars we had to wait on the only hot and smelly elevator,  parking was unprotected and far from our room, no amenities on 4th floor at all, old toenail and hair in bathroom,  tv remote did not work, rather large gap between door and floor, pillows were worse than the ones I just threw out from home (very lumpy and flat), customer service was nothing great, breakfast crowded and so so.....overall, more like an econo lodge than a holiday inn. Very disappointed,  normally the staff at holiday inns have made the difference for us when we've had the rare problem.  I went down stairs to try and address the issues the evening we were staying but couldn't find anyone. Up until this location, I've been a loyal customer to the brand but this place has me saying let's try the Hampton. I have grown to expect much better than what we got here and I don't believe in paying this much when I can get a dirty room with sad...After 16 hours on the road and a total of 24 without sleep,  we were exhausted.  We didn't want to stay downtown, even though I've had great experiences with the area so we came north. It was between the Hampton and holiday and holiday won even with the absurd prices because of past experiences with other holiday inns. This place does not deserve the title. Incredibly disappointed: for nearly 170 dollars we had to wait on the only hot and smelly elevator,  parking was unprotected and far from our room, no amenities on 4th floor at all, old toenail and hair in bathroom,  tv remote did not work, rather large gap between door and floor, pillows were worse than the ones I just threw out from home (very lumpy and flat), customer service was nothing great, breakfast crowded and so so.....overall, more like an econo lodge than a holiday inn. Very disappointed,  normally the staff at holiday inns have made the difference for us when we've had the rare problem.  I went down stairs to try and address the issues the evening we were staying but couldn't find anyone. Up until this location, I've been a loyal customer to the brand but this place has me saying let's try the Hampton. I have grown to expect much better than what we got here and I don't believe in paying this much when I can get a dirty room with sad pillows etc for half the price by going to some economy place or no name motel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r385330226-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>385330226</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Pet friendly and Comfortable</t>
+  </si>
+  <si>
+    <t>My move was stressful, so I did not need any issues. The hotel did not disappoint . They were up front regarding the deposit for each pet. It immediately was dropped once they did an inspection the next morning. I only stayed for one day but the room was very generous with enough extra room to accommodate my puppy. Room was clean with NO odors (which I had very much expected). I also expected noise since I was on the first floor. I had a comfortable night's rest and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My move was stressful, so I did not need any issues. The hotel did not disappoint . They were up front regarding the deposit for each pet. It immediately was dropped once they did an inspection the next morning. I only stayed for one day but the room was very generous with enough extra room to accommodate my puppy. Room was clean with NO odors (which I had very much expected). I also expected noise since I was on the first floor. I had a comfortable night's rest and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r380052523-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380052523</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>A place to sleep</t>
+  </si>
+  <si>
+    <t>I stayed in mostly Candlewood in my two weeks on the front range so this was a bit of a let down.  I was on the fourth floor and the elevated dropped like The Tower of Terror at California Adventure, enough to mess with your insides.  The crack under the door was huge and let in enough light from the hall to disturb sleeping.  Stayed in hotel a couple nights, one for work and one with family.  Staff was friendly and nice but it is HIE and they will never compare to a Candlewood or Staybridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in mostly Candlewood in my two weeks on the front range so this was a bit of a let down.  I was on the fourth floor and the elevated dropped like The Tower of Terror at California Adventure, enough to mess with your insides.  The crack under the door was huge and let in enough light from the hall to disturb sleeping.  Stayed in hotel a couple nights, one for work and one with family.  Staff was friendly and nice but it is HIE and they will never compare to a Candlewood or Staybridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r379219576-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>379219576</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel and Location</t>
+  </si>
+  <si>
+    <t>We changed our reservations at the last minute and added a day arriving a day early. They had 2 King rooms left and we chose the larger of the two which was a handicap room. The room itself was fine but the elevator mechanical room was right across the hall from the room and the exhaust fan blew constantly all night long. The lighting in the room was very poor also. In the morning we were awoken by thumping on the wall only to discover that the kitchen where the breakfast buffet was prepared shared a common wall with our room.
+The good news is the girls at the front desk the night before, Sam &amp; Jordan, told us they would find us a new room for the next night. In the morning, the girls at the front desk, Libni &amp; Tanya, told us to take our things with us and when we returned they would have a new room ready for us for the remainder of our 4 night stay...which they did. We had a very nice quiet room on the 4th floor. The handicap room on the first floor which we originally had should not be occupied by anyone. The hotel should never make this room available!
+It is a very nice hotel located on a street filled with restaurants and stores...very convenient to everything. A free breakfast buffet is offered but it is still the same buffet...We changed our reservations at the last minute and added a day arriving a day early. They had 2 King rooms left and we chose the larger of the two which was a handicap room. The room itself was fine but the elevator mechanical room was right across the hall from the room and the exhaust fan blew constantly all night long. The lighting in the room was very poor also. In the morning we were awoken by thumping on the wall only to discover that the kitchen where the breakfast buffet was prepared shared a common wall with our room.The good news is the girls at the front desk the night before, Sam &amp; Jordan, told us they would find us a new room for the next night. In the morning, the girls at the front desk, Libni &amp; Tanya, told us to take our things with us and when we returned they would have a new room ready for us for the remainder of our 4 night stay...which they did. We had a very nice quiet room on the 4th floor. The handicap room on the first floor which we originally had should not be occupied by anyone. The hotel should never make this room available!It is a very nice hotel located on a street filled with restaurants and stores...very convenient to everything. A free breakfast buffet is offered but it is still the same buffet as every other Holiday Inn. I really wish they would offer some variety at their buffets.cMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2016</t>
+  </si>
+  <si>
+    <t>We changed our reservations at the last minute and added a day arriving a day early. They had 2 King rooms left and we chose the larger of the two which was a handicap room. The room itself was fine but the elevator mechanical room was right across the hall from the room and the exhaust fan blew constantly all night long. The lighting in the room was very poor also. In the morning we were awoken by thumping on the wall only to discover that the kitchen where the breakfast buffet was prepared shared a common wall with our room.
+The good news is the girls at the front desk the night before, Sam &amp; Jordan, told us they would find us a new room for the next night. In the morning, the girls at the front desk, Libni &amp; Tanya, told us to take our things with us and when we returned they would have a new room ready for us for the remainder of our 4 night stay...which they did. We had a very nice quiet room on the 4th floor. The handicap room on the first floor which we originally had should not be occupied by anyone. The hotel should never make this room available!
+It is a very nice hotel located on a street filled with restaurants and stores...very convenient to everything. A free breakfast buffet is offered but it is still the same buffet...We changed our reservations at the last minute and added a day arriving a day early. They had 2 King rooms left and we chose the larger of the two which was a handicap room. The room itself was fine but the elevator mechanical room was right across the hall from the room and the exhaust fan blew constantly all night long. The lighting in the room was very poor also. In the morning we were awoken by thumping on the wall only to discover that the kitchen where the breakfast buffet was prepared shared a common wall with our room.The good news is the girls at the front desk the night before, Sam &amp; Jordan, told us they would find us a new room for the next night. In the morning, the girls at the front desk, Libni &amp; Tanya, told us to take our things with us and when we returned they would have a new room ready for us for the remainder of our 4 night stay...which they did. We had a very nice quiet room on the 4th floor. The handicap room on the first floor which we originally had should not be occupied by anyone. The hotel should never make this room available!It is a very nice hotel located on a street filled with restaurants and stores...very convenient to everything. A free breakfast buffet is offered but it is still the same buffet as every other Holiday Inn. I really wish they would offer some variety at their buffets.cMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r367417429-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>367417429</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Clean </t>
+  </si>
+  <si>
+    <t>I was extremely impressed with the cleanliness of this Holiday Inn. Very clean and the entire staff was excellent! Breakfast was very delicious and a pretty good list of items to choose from. Located near many stores and great restaurants and bars to choose from. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>I was extremely impressed with the cleanliness of this Holiday Inn. Very clean and the entire staff was excellent! Breakfast was very delicious and a pretty good list of items to choose from. Located near many stores and great restaurants and bars to choose from. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r338951444-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>338951444</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Clean and Quiet</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting friends.  The hotel was clean, the breakfast was goos and the staff were friendly.  It had snowed that night and the sidewalks were already cleaned when we left.  Will go there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting friends.  The hotel was clean, the breakfast was goos and the staff were friendly.  It had snowed that night and the sidewalks were already cleaned when we left.  Will go there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r338319345-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>338319345</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>More than expected</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised. $120.00 for a king room. It was a very nice room. Granted it was a Wed night so it was slow so I didn't have to deal with any rowdy neighbors. Hopefully it that is happening they can get that to stop.  The guy at the front desk was very professional. The room was VERY clean. They have fridge, sink,  and microwave in the room as well as a set of 4 plates, bowls and plastic ware as well as a glass bowl so you can make stuff in the microwave. The king has a pull out bed as well as a chair that a child could sleep on comfortably. They do offer room service. Their breakfast buffet was not good. Their biscuits are hard and they need to stick to scrambled eggs instead of the weird omlet things. The rest of the buffet is ok ...they have several bread, cereal, and yogurt choices and pancakes. Their pool and hot tub are very clean. I was SEVERELY disappointed that the laundry room closes at 11. So does the pool. All in all, I would definitely go back if I go through this area again. :) MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised. $120.00 for a king room. It was a very nice room. Granted it was a Wed night so it was slow so I didn't have to deal with any rowdy neighbors. Hopefully it that is happening they can get that to stop.  The guy at the front desk was very professional. The room was VERY clean. They have fridge, sink,  and microwave in the room as well as a set of 4 plates, bowls and plastic ware as well as a glass bowl so you can make stuff in the microwave. The king has a pull out bed as well as a chair that a child could sleep on comfortably. They do offer room service. Their breakfast buffet was not good. Their biscuits are hard and they need to stick to scrambled eggs instead of the weird omlet things. The rest of the buffet is ok ...they have several bread, cereal, and yogurt choices and pancakes. Their pool and hot tub are very clean. I was SEVERELY disappointed that the laundry room closes at 11. So does the pool. All in all, I would definitely go back if I go through this area again. :) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r336974132-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>336974132</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Great location and Staff</t>
+  </si>
+  <si>
+    <t>We have relatives that live nearby and chose this Holiday Inn based on location and price. The hotel is close to I-25, but we did not hear the traffic. 120th St has lots of shopping and restaurants.We got an upgraded room with a separate sitting area. The room was clean and spacious. The desk clerks we all friendly and helpful. The free breakfast was standrard HI fare, It's OK but grows kind of old when you stay 5 nights.We arrived on Christmas due to flight cancellation the day before. It was snowing hard all the way from the airport and their driveway was not plowed. It never got above 30 degrees the whole time, so the parking lot stayed icy. If I have any complaint it would be that they should have done something to remove the snow and ice,MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>We have relatives that live nearby and chose this Holiday Inn based on location and price. The hotel is close to I-25, but we did not hear the traffic. 120th St has lots of shopping and restaurants.We got an upgraded room with a separate sitting area. The room was clean and spacious. The desk clerks we all friendly and helpful. The free breakfast was standrard HI fare, It's OK but grows kind of old when you stay 5 nights.We arrived on Christmas due to flight cancellation the day before. It was snowing hard all the way from the airport and their driveway was not plowed. It never got above 30 degrees the whole time, so the parking lot stayed icy. If I have any complaint it would be that they should have done something to remove the snow and ice,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r331858025-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>331858025</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Was Sleeping Like a Baby</t>
+  </si>
+  <si>
+    <t>Was sleeping like a baby this morning when, shortly before 8 am, it sounded like the world was coming to an end. It was the housekeepers making enough noise to wake the dead. I know they have to clean the rooms, but really???  I would have loved to have slept to at least 9 and it's just not necessary to be that loud. Also, the wind was blowing hard last night and coming in through a small opening between the AC unit and the window. It was making a loud whistling noise and actually moving the curtains it was so strong. The staff allowed me to change rooms, but it did it in both rooms. IThey said they would tell maintenance, but no one has done anything about it as far as I can tell. It wouldn't really help anyway because it's more of a design flaw than a maintenance issue. Other than those things, the hotel is a good value for the money, and clean. Didn't eat the breakfast so I don't know about that.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Was sleeping like a baby this morning when, shortly before 8 am, it sounded like the world was coming to an end. It was the housekeepers making enough noise to wake the dead. I know they have to clean the rooms, but really???  I would have loved to have slept to at least 9 and it's just not necessary to be that loud. Also, the wind was blowing hard last night and coming in through a small opening between the AC unit and the window. It was making a loud whistling noise and actually moving the curtains it was so strong. The staff allowed me to change rooms, but it did it in both rooms. IThey said they would tell maintenance, but no one has done anything about it as far as I can tell. It wouldn't really help anyway because it's more of a design flaw than a maintenance issue. Other than those things, the hotel is a good value for the money, and clean. Didn't eat the breakfast so I don't know about that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r330554815-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>330554815</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Not up to par with other holiday in express hotels</t>
+  </si>
+  <si>
+    <t>Stayed here for one night during the middle of the week. Typical holiday    in express decor and hotel layout. Rooms are very small but don't seem quite cramped due to taller ceilings. Biggest complaint was the bed and pillows. For this being a new hotel expected pillow top beds but instead had a very firm mattress with no give whatsoever. Pillows were a sad excuse for comfort. They felt like they were full of dirty laundry. No support whatsoever. Not what you normally get in a Holiday Inn express. I stay almost exclusively at holiday in express hotels across the country and this is the poorest one I have stayed in. Expect better quality mattresses and pillows for a new hotel. Bathroom was fine as was the breakfast. Typical Holiday Inn fair nothing too impressive. Staff was very friendly and hotel was clean. Only reason I would not stay here again would be the mattress and pillow. Seems like a incidental thing but really why do you stay at a hotel? To get a good nights sleep. Neither my wife nor I slept well with the mattress and pillows. Other than that the hotel was just fine. Other small complaint was the parking lot does not seem to be big enough to handle all the vehicles for all the rooms. And their entrances very hard to find. It was dark when we arrived and there are no signs telling you...Stayed here for one night during the middle of the week. Typical holiday    in express decor and hotel layout. Rooms are very small but don't seem quite cramped due to taller ceilings. Biggest complaint was the bed and pillows. For this being a new hotel expected pillow top beds but instead had a very firm mattress with no give whatsoever. Pillows were a sad excuse for comfort. They felt like they were full of dirty laundry. No support whatsoever. Not what you normally get in a Holiday Inn express. I stay almost exclusively at holiday in express hotels across the country and this is the poorest one I have stayed in. Expect better quality mattresses and pillows for a new hotel. Bathroom was fine as was the breakfast. Typical Holiday Inn fair nothing too impressive. Staff was very friendly and hotel was clean. Only reason I would not stay here again would be the mattress and pillow. Seems like a incidental thing but really why do you stay at a hotel? To get a good nights sleep. Neither my wife nor I slept well with the mattress and pillows. Other than that the hotel was just fine. Other small complaint was the parking lot does not seem to be big enough to handle all the vehicles for all the rooms. And their entrances very hard to find. It was dark when we arrived and there are no signs telling you which driveway to take off Grant.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for one night during the middle of the week. Typical holiday    in express decor and hotel layout. Rooms are very small but don't seem quite cramped due to taller ceilings. Biggest complaint was the bed and pillows. For this being a new hotel expected pillow top beds but instead had a very firm mattress with no give whatsoever. Pillows were a sad excuse for comfort. They felt like they were full of dirty laundry. No support whatsoever. Not what you normally get in a Holiday Inn express. I stay almost exclusively at holiday in express hotels across the country and this is the poorest one I have stayed in. Expect better quality mattresses and pillows for a new hotel. Bathroom was fine as was the breakfast. Typical Holiday Inn fair nothing too impressive. Staff was very friendly and hotel was clean. Only reason I would not stay here again would be the mattress and pillow. Seems like a incidental thing but really why do you stay at a hotel? To get a good nights sleep. Neither my wife nor I slept well with the mattress and pillows. Other than that the hotel was just fine. Other small complaint was the parking lot does not seem to be big enough to handle all the vehicles for all the rooms. And their entrances very hard to find. It was dark when we arrived and there are no signs telling you...Stayed here for one night during the middle of the week. Typical holiday    in express decor and hotel layout. Rooms are very small but don't seem quite cramped due to taller ceilings. Biggest complaint was the bed and pillows. For this being a new hotel expected pillow top beds but instead had a very firm mattress with no give whatsoever. Pillows were a sad excuse for comfort. They felt like they were full of dirty laundry. No support whatsoever. Not what you normally get in a Holiday Inn express. I stay almost exclusively at holiday in express hotels across the country and this is the poorest one I have stayed in. Expect better quality mattresses and pillows for a new hotel. Bathroom was fine as was the breakfast. Typical Holiday Inn fair nothing too impressive. Staff was very friendly and hotel was clean. Only reason I would not stay here again would be the mattress and pillow. Seems like a incidental thing but really why do you stay at a hotel? To get a good nights sleep. Neither my wife nor I slept well with the mattress and pillows. Other than that the hotel was just fine. Other small complaint was the parking lot does not seem to be big enough to handle all the vehicles for all the rooms. And their entrances very hard to find. It was dark when we arrived and there are no signs telling you which driveway to take off Grant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r326978679-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>326978679</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Great overnight stay!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed overnight and had a great stay.  Hotel was clean, coffee all day if you like, breakfast was awesome, hotel bed was comfy with great pillows.  I will definitely stay here in the future.  The elevator is a little slow, but we were on the 4th floor so I didn't want to lug my bags up the stairs, so we just dealt with it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed overnight and had a great stay.  Hotel was clean, coffee all day if you like, breakfast was awesome, hotel bed was comfy with great pillows.  I will definitely stay here in the future.  The elevator is a little slow, but we were on the 4th floor so I didn't want to lug my bags up the stairs, so we just dealt with it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r318414852-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>318414852</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Good hotel - Ideal location for visiting Rocky Mountain National Park and surrounding area.</t>
+  </si>
+  <si>
+    <t>Front desk staff very good and quickly booked us in. The room was large, clean, and ideal for our requirements. Breakfast was in line with what you expect at a HIE. Although the one disappointment was no English tea when we needed a cuppa on the evening. Although just off the interstate you cannot here any noise in your room, and the room had an opening window that was ideal. Always plenty of space on the car park, and it was well lit so perfectly safe. We found it ideal for our visits to the RMNP.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>prescotttammy, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Front desk staff very good and quickly booked us in. The room was large, clean, and ideal for our requirements. Breakfast was in line with what you expect at a HIE. Although the one disappointment was no English tea when we needed a cuppa on the evening. Although just off the interstate you cannot here any noise in your room, and the room had an opening window that was ideal. Always plenty of space on the car park, and it was well lit so perfectly safe. We found it ideal for our visits to the RMNP.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r300691250-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>300691250</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Perfect for my family!</t>
+  </si>
+  <si>
+    <t>Great view, great area, and great room! Got the double queen standard, and it was perfect for my family and I. Clean comfortable beds, and nice big bathroom. Breakfast was decent, standard continental. My kids loved the pool and we loved that they had a hot tub. Super close to Water World and made it convenient for my family and I to drive back and forth. I would recommend this hotel and definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>prescotttammy, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Great view, great area, and great room! Got the double queen standard, and it was perfect for my family and I. Clean comfortable beds, and nice big bathroom. Breakfast was decent, standard continental. My kids loved the pool and we loved that they had a hot tub. Super close to Water World and made it convenient for my family and I to drive back and forth. I would recommend this hotel and definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r294554591-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>294554591</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family vacation </t>
+  </si>
+  <si>
+    <t>Condition of hotel was in good shape. Our room had two queen beds and was tight going between A/C &amp; bed. Staff was very helpful. Location is good for Water World. Restaurants within walking distance. Gas station and tire repair shop next to it. MoreShow less</t>
+  </si>
+  <si>
+    <t>prescotttammy, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Condition of hotel was in good shape. Our room had two queen beds and was tight going between A/C &amp; bed. Staff was very helpful. Location is good for Water World. Restaurants within walking distance. Gas station and tire repair shop next to it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r274085569-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>274085569</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Hard to see from highway</t>
+  </si>
+  <si>
+    <t>stayed here with my 11 year old daughter while visiting for 3 nights. This hotel is very clean. Housekeeping started early in the am. They were very quiet too. Every time we came back to the hotel our room was picked up and beds made. That's more than I can say for most Marriott hotels I've stayed at recently. The hot tub was nice and never crowded. Breakfast was just ok. The eggs were not real and honestly, just nasty. However, they have a little of everything. What you should know is this hotel is hard to see from I-25. I actually drove past it, turned around and headed the wrong way, and had to call to ask where exactly was the hotel. Well, it's BEHIND the gas station set back a little ways.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>stayed here with my 11 year old daughter while visiting for 3 nights. This hotel is very clean. Housekeeping started early in the am. They were very quiet too. Every time we came back to the hotel our room was picked up and beds made. That's more than I can say for most Marriott hotels I've stayed at recently. The hot tub was nice and never crowded. Breakfast was just ok. The eggs were not real and honestly, just nasty. However, they have a little of everything. What you should know is this hotel is hard to see from I-25. I actually drove past it, turned around and headed the wrong way, and had to call to ask where exactly was the hotel. Well, it's BEHIND the gas station set back a little ways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r269037042-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>269037042</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>The Perfect Overnight Business Stop</t>
+  </si>
+  <si>
+    <t>This hotel was a friendly, efficient and pleasant overnight business location.  It is convenient to walk to restaurants and a few shops and easy to find.  It's complimentary breakfast was well stocked and monitored by a caring and friendly staff.  The breakfast bar offered hot choices, cereals, choice of breads and bagels, and some delicious cinnamon buns.  Check in was a breeze, also friendly and efficient.  The room was nicely appointed and very clean.  Overall great experience. I would definitely come here again when visiting on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was a friendly, efficient and pleasant overnight business location.  It is convenient to walk to restaurants and a few shops and easy to find.  It's complimentary breakfast was well stocked and monitored by a caring and friendly staff.  The breakfast bar offered hot choices, cereals, choice of breads and bagels, and some delicious cinnamon buns.  Check in was a breeze, also friendly and efficient.  The room was nicely appointed and very clean.  Overall great experience. I would definitely come here again when visiting on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r267456069-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>267456069</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Staycation for disabled</t>
+  </si>
+  <si>
+    <t>The room was big enough for me to get around.  Beds were so comfortable.  The pillows were great.  Everything was clean.  Had enough towels. Very little sound heard from others.  Breakfast food was great and nice variety.Staff were extremely friendly and helpful.  Had a drain problem and it was fixed while I was out eating.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2015</t>
+  </si>
+  <si>
+    <t>The room was big enough for me to get around.  Beds were so comfortable.  The pillows were great.  Everything was clean.  Had enough towels. Very little sound heard from others.  Breakfast food was great and nice variety.Staff were extremely friendly and helpful.  Had a drain problem and it was fixed while I was out eating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r243950785-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>243950785</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>They almost had it perfected</t>
+  </si>
+  <si>
+    <t>I was mostly pleased with this hotel.  
+This hotel is in a very convenient place.  So many places within walking distance, no matter what you wanted to do - eat, shop, etc.  Easy driving to various side streets and/or interstates.
+The lobby is very inviting and trendy, with plenty of seating and an inviting fireplace.  Free newspapers were provided in the lobby.  The free breakfast was decent (obviously nothing gourmet - as in the eggs aren't real.)  There was a nice variety for everyone, bacon &amp; eggs or turkey sausage.  Biscuits, gravy, pancakes, bagels, toast (white or wheat), pastries, 4 types of cereal, plenty of fruit &amp; juices and of course coffee.  I read where someone said the weekend breakfast was better but all of these choices were during our weekday stay.
+Our room was clean &amp; updated.  The beds &amp; pillows were very comfortable. (loved the pillows!)
+My only complaint has to do with the water.  First, the water pressure in the sink was terrible.  The pressure was so low that it made it hard to even rinse out the toothbrush.  Secondly, the water temperature was not very hot.  Turning ONLY the hot water on, we only had enough hot water for one person to take a shower.  And that was a quick one at that.  
+Aside from those two things, I thought the hotel was very nice, clean, providing a great place to stay in a great location...I was mostly pleased with this hotel.  This hotel is in a very convenient place.  So many places within walking distance, no matter what you wanted to do - eat, shop, etc.  Easy driving to various side streets and/or interstates.The lobby is very inviting and trendy, with plenty of seating and an inviting fireplace.  Free newspapers were provided in the lobby.  The free breakfast was decent (obviously nothing gourmet - as in the eggs aren't real.)  There was a nice variety for everyone, bacon &amp; eggs or turkey sausage.  Biscuits, gravy, pancakes, bagels, toast (white or wheat), pastries, 4 types of cereal, plenty of fruit &amp; juices and of course coffee.  I read where someone said the weekend breakfast was better but all of these choices were during our weekday stay.Our room was clean &amp; updated.  The beds &amp; pillows were very comfortable. (loved the pillows!)My only complaint has to do with the water.  First, the water pressure in the sink was terrible.  The pressure was so low that it made it hard to even rinse out the toothbrush.  Secondly, the water temperature was not very hot.  Turning ONLY the hot water on, we only had enough hot water for one person to take a shower.  And that was a quick one at that.  Aside from those two things, I thought the hotel was very nice, clean, providing a great place to stay in a great location and with a very friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2014</t>
+  </si>
+  <si>
+    <t>I was mostly pleased with this hotel.  
+This hotel is in a very convenient place.  So many places within walking distance, no matter what you wanted to do - eat, shop, etc.  Easy driving to various side streets and/or interstates.
+The lobby is very inviting and trendy, with plenty of seating and an inviting fireplace.  Free newspapers were provided in the lobby.  The free breakfast was decent (obviously nothing gourmet - as in the eggs aren't real.)  There was a nice variety for everyone, bacon &amp; eggs or turkey sausage.  Biscuits, gravy, pancakes, bagels, toast (white or wheat), pastries, 4 types of cereal, plenty of fruit &amp; juices and of course coffee.  I read where someone said the weekend breakfast was better but all of these choices were during our weekday stay.
+Our room was clean &amp; updated.  The beds &amp; pillows were very comfortable. (loved the pillows!)
+My only complaint has to do with the water.  First, the water pressure in the sink was terrible.  The pressure was so low that it made it hard to even rinse out the toothbrush.  Secondly, the water temperature was not very hot.  Turning ONLY the hot water on, we only had enough hot water for one person to take a shower.  And that was a quick one at that.  
+Aside from those two things, I thought the hotel was very nice, clean, providing a great place to stay in a great location...I was mostly pleased with this hotel.  This hotel is in a very convenient place.  So many places within walking distance, no matter what you wanted to do - eat, shop, etc.  Easy driving to various side streets and/or interstates.The lobby is very inviting and trendy, with plenty of seating and an inviting fireplace.  Free newspapers were provided in the lobby.  The free breakfast was decent (obviously nothing gourmet - as in the eggs aren't real.)  There was a nice variety for everyone, bacon &amp; eggs or turkey sausage.  Biscuits, gravy, pancakes, bagels, toast (white or wheat), pastries, 4 types of cereal, plenty of fruit &amp; juices and of course coffee.  I read where someone said the weekend breakfast was better but all of these choices were during our weekday stay.Our room was clean &amp; updated.  The beds &amp; pillows were very comfortable. (loved the pillows!)My only complaint has to do with the water.  First, the water pressure in the sink was terrible.  The pressure was so low that it made it hard to even rinse out the toothbrush.  Secondly, the water temperature was not very hot.  Turning ONLY the hot water on, we only had enough hot water for one person to take a shower.  And that was a quick one at that.  Aside from those two things, I thought the hotel was very nice, clean, providing a great place to stay in a great location and with a very friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r241784275-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>241784275</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>Good hotel, good location.</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed here for a week. We were in town for a wedding and we just took a few extra days to explore the local area. 
+The lobby is nice and decorated in modern fashion with a fire place in the lobby and a tv above the mantle.
+Check in was quick and efficient and when we got to our room, we were pleased to see that we actually had room. There was a little bistro table, a love seat with a coffee table and then towards the other side of the room, there was a king size bed and dresser and tv with two night stands. There was also a proper desk with internet connection and a chair with an ottoman. 
+The room also had a microwave, small sink and mini fridge across from a room safe. 
+We found all of these features very nice and useful since we stayed for a week. 
+The bathroom was designed well too with a hair dryer and the complimentary sundries. 
+The breakfast was better on the weekends than during the week. There was an assortment of cereals, breads, yogurts. The eggs tasted like they were powdered or made from a mix, but then again, I have more sensitive senses than most. 
+I wish there had been better buffering for noise in the hallways. We litterally heard everything in the hallways. Doors slamming, kids running and screaming, there were...My husband and I recently stayed here for a week. We were in town for a wedding and we just took a few extra days to explore the local area. The lobby is nice and decorated in modern fashion with a fire place in the lobby and a tv above the mantle.Check in was quick and efficient and when we got to our room, we were pleased to see that we actually had room. There was a little bistro table, a love seat with a coffee table and then towards the other side of the room, there was a king size bed and dresser and tv with two night stands. There was also a proper desk with internet connection and a chair with an ottoman. The room also had a microwave, small sink and mini fridge across from a room safe. We found all of these features very nice and useful since we stayed for a week. The bathroom was designed well too with a hair dryer and the complimentary sundries. The breakfast was better on the weekends than during the week. There was an assortment of cereals, breads, yogurts. The eggs tasted like they were powdered or made from a mix, but then again, I have more sensitive senses than most. I wish there had been better buffering for noise in the hallways. We litterally heard everything in the hallways. Doors slamming, kids running and screaming, there were two nights it sounds like a herd was passing through. I wish this for airlines as well as hotels, there needs to be an adults only floor or section.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>prescotttammy, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed here for a week. We were in town for a wedding and we just took a few extra days to explore the local area. 
+The lobby is nice and decorated in modern fashion with a fire place in the lobby and a tv above the mantle.
+Check in was quick and efficient and when we got to our room, we were pleased to see that we actually had room. There was a little bistro table, a love seat with a coffee table and then towards the other side of the room, there was a king size bed and dresser and tv with two night stands. There was also a proper desk with internet connection and a chair with an ottoman. 
+The room also had a microwave, small sink and mini fridge across from a room safe. 
+We found all of these features very nice and useful since we stayed for a week. 
+The bathroom was designed well too with a hair dryer and the complimentary sundries. 
+The breakfast was better on the weekends than during the week. There was an assortment of cereals, breads, yogurts. The eggs tasted like they were powdered or made from a mix, but then again, I have more sensitive senses than most. 
+I wish there had been better buffering for noise in the hallways. We litterally heard everything in the hallways. Doors slamming, kids running and screaming, there were...My husband and I recently stayed here for a week. We were in town for a wedding and we just took a few extra days to explore the local area. The lobby is nice and decorated in modern fashion with a fire place in the lobby and a tv above the mantle.Check in was quick and efficient and when we got to our room, we were pleased to see that we actually had room. There was a little bistro table, a love seat with a coffee table and then towards the other side of the room, there was a king size bed and dresser and tv with two night stands. There was also a proper desk with internet connection and a chair with an ottoman. The room also had a microwave, small sink and mini fridge across from a room safe. We found all of these features very nice and useful since we stayed for a week. The bathroom was designed well too with a hair dryer and the complimentary sundries. The breakfast was better on the weekends than during the week. There was an assortment of cereals, breads, yogurts. The eggs tasted like they were powdered or made from a mix, but then again, I have more sensitive senses than most. I wish there had been better buffering for noise in the hallways. We litterally heard everything in the hallways. Doors slamming, kids running and screaming, there were two nights it sounds like a herd was passing through. I wish this for airlines as well as hotels, there needs to be an adults only floor or section.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r238928272-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>238928272</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>The hotel was clean, comfortable and modern.   It is well located for the I-25 into Denver or out to Fort Collins or Boulder.  There are plenty of eating places in the immedaite vicinity.  We enjoyed  our stay here and would definately return.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was clean, comfortable and modern.   It is well located for the I-25 into Denver or out to Fort Collins or Boulder.  There are plenty of eating places in the immedaite vicinity.  We enjoyed  our stay here and would definately return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r230424597-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>230424597</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Would recommend!</t>
+  </si>
+  <si>
+    <t>Room was clean, comfortable and modern. Staff was really nice and accommodating. They didn't seem to mind guests being in the dining room eating breakfast after the cut-off time. They even brought out fresh food right before the end of the breakfast time.  Good selection of breakfast items too!  Swimming pool and hot tub were clean and warm. Fitness center only had a treadmill, bike, and eliptical. No weights. But it was a nice, clean room for cardio. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Room was clean, comfortable and modern. Staff was really nice and accommodating. They didn't seem to mind guests being in the dining room eating breakfast after the cut-off time. They even brought out fresh food right before the end of the breakfast time.  Good selection of breakfast items too!  Swimming pool and hot tub were clean and warm. Fitness center only had a treadmill, bike, and eliptical. No weights. But it was a nice, clean room for cardio. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r227661253-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>227661253</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Just what we wanted....</t>
+  </si>
+  <si>
+    <t>This was to be our "jumping-off" point on our road-trip around CO, WY and UT.  The hotel is about 30min drive from the airport, and after a long day travelling from London, what we wanted was a friendly greeting, quick check-in, a huge comfortable bed and the bonus of a free breakfast.All of this was achieved, so full marks all round.  The hotel is also near the interstate for an onward northbound journey.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2014</t>
+  </si>
+  <si>
+    <t>This was to be our "jumping-off" point on our road-trip around CO, WY and UT.  The hotel is about 30min drive from the airport, and after a long day travelling from London, what we wanted was a friendly greeting, quick check-in, a huge comfortable bed and the bonus of a free breakfast.All of this was achieved, so full marks all round.  The hotel is also near the interstate for an onward northbound journey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r227574131-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>227574131</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Denver Training Trip</t>
+  </si>
+  <si>
+    <t>I love Holiday Inn's pillows and breakfasts.  I was able to relax after a hard day at training and sleep in, knowing that a hot breakfast was ready before I had to make it out for another hard training day.  The only negative part was, of course, the TV.  I always have a little trouble with the television at the Holiday Inn's.  But, a quick call to the Front Desk solved the issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I love Holiday Inn's pillows and breakfasts.  I was able to relax after a hard day at training and sleep in, knowing that a hot breakfast was ready before I had to make it out for another hard training day.  The only negative part was, of course, the TV.  I always have a little trouble with the television at the Holiday Inn's.  But, a quick call to the Front Desk solved the issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r225441058-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>225441058</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Great stop, good staff</t>
+  </si>
+  <si>
+    <t>Dropped on this hotel straight from Denver airport, excellent location close to shops, restaurants etc. got free upgrade to a suite which was lovely. Breakfast included in a very reasonable price. The Durness suite had a Gym and the pool was very clean and opened at 05.30. Recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Dropped on this hotel straight from Denver airport, excellent location close to shops, restaurants etc. got free upgrade to a suite which was lovely. Breakfast included in a very reasonable price. The Durness suite had a Gym and the pool was very clean and opened at 05.30. Recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r224707610-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>224707610</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Still great the second time!</t>
+  </si>
+  <si>
+    <t>When in Thornton and needing a hotel, I went back to this Holiday Inn Express.  I'd had problems with my car trunk and needed to put all my stuff in the back seat.  I felt safe at this hotel leaving things in the car that should have been hidden away.  The beds are good and everything is very clean.  The front desk people are wonderful.  It's back off the main street and very quiet.  A great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>When in Thornton and needing a hotel, I went back to this Holiday Inn Express.  I'd had problems with my car trunk and needed to put all my stuff in the back seat.  I felt safe at this hotel leaving things in the car that should have been hidden away.  The beds are good and everything is very clean.  The front desk people are wonderful.  It's back off the main street and very quiet.  A great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r219364503-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>219364503</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Suites are great for families</t>
+  </si>
+  <si>
+    <t>Rather than purchasing two rooms (due to husband's snoring), we loved the suite with three queen beds. It was great for our family and gave everyone the space they needed, plus a little fridge and sink. Just wish there were two bathrooms. Also appreciated having laundry facilities on-site. Pool, hot tub and breakfast was like other Holiday Inn Express hotels. Location is perfect -- easy access to everything and freeways.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2014</t>
+  </si>
+  <si>
+    <t>Rather than purchasing two rooms (due to husband's snoring), we loved the suite with three queen beds. It was great for our family and gave everyone the space they needed, plus a little fridge and sink. Just wish there were two bathrooms. Also appreciated having laundry facilities on-site. Pool, hot tub and breakfast was like other Holiday Inn Express hotels. Location is perfect -- easy access to everything and freeways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r219308288-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>219308288</t>
+  </si>
+  <si>
+    <t>Nice rooms, great breakfast, very friendly staff</t>
+  </si>
+  <si>
+    <t>We usually stay at the Doubletree in Thornton, CO, but decided to give this hotel a try to save a little money.  Turns out it is just as nice, very clean and comfortable - and includes breakfast.  The  staff is very friendly and welcoming.  The breakfast has a large variety, including cereal, fruit, instant oatmeal, an assortment of breads, rolls (including hot, fresh cinnamon rolls), hot items such as eggs, sausage/bacon, and best of all a pancake machine that makes fresh pancakes in about a minute.  Pets are welcome for a $25 non-refundable fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>We usually stay at the Doubletree in Thornton, CO, but decided to give this hotel a try to save a little money.  Turns out it is just as nice, very clean and comfortable - and includes breakfast.  The  staff is very friendly and welcoming.  The breakfast has a large variety, including cereal, fruit, instant oatmeal, an assortment of breads, rolls (including hot, fresh cinnamon rolls), hot items such as eggs, sausage/bacon, and best of all a pancake machine that makes fresh pancakes in about a minute.  Pets are welcome for a $25 non-refundable fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r217642868-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>217642868</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>Spacious room. Well designed and maintained.  Comfortable bed. Bathroom large and well built.I would not hesitate to stay here again if I were traveling thru Thornton CO.[ added characters to get to 200 minimum]MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Spacious room. Well designed and maintained.  Comfortable bed. Bathroom large and well built.I would not hesitate to stay here again if I were traveling thru Thornton CO.[ added characters to get to 200 minimum]More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r216418391-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>216418391</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Clean and friendly staff</t>
+  </si>
+  <si>
+    <t>We decided to stay here last minute with no reservations.   The staff was very friendly and accomodating despite our very late arrival.  We were glad to see the room was clean and the bed was comfortable.  It looks like it was recently built or renovated.  The hotel was convenient to the highway, near plenty of food options and reasonably priced. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>We decided to stay here last minute with no reservations.   The staff was very friendly and accomodating despite our very late arrival.  We were glad to see the room was clean and the bed was comfortable.  It looks like it was recently built or renovated.  The hotel was convenient to the highway, near plenty of food options and reasonably priced. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r210174411-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>210174411</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>No brainer</t>
+  </si>
+  <si>
+    <t>Thanks Holiday Inn for making it look easy, like you weren't even trying. Truth is, HI does a great job across the west and this stay for me was no exception. The service was on par-meaning, it was good - with other stays I've enjoyed using HI. Recommend! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Thanks Holiday Inn for making it look easy, like you weren't even trying. Truth is, HI does a great job across the west and this stay for me was no exception. The service was on par-meaning, it was good - with other stays I've enjoyed using HI. Recommend! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r209414405-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>209414405</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Nice stay, good location.</t>
+  </si>
+  <si>
+    <t>We were in Denver visiting family with our two children and infant.  We had a two queen bed suite and it was nice and roomy. There was a portable crib in our room upon request. The room was clean and the beds were comfortable. There was a mini fridge, microwave and sink in room. The bathroom was also clean and nice size, only wish it had double sinks. The staff was very friendly and helpful. We also enjoyed the indoor pool during our stay. The free breakfast was good...eggs, sausage, pancakes, muffins, yogurt, fruit, biscuits and gravy, cereals and different juices, teas and coffee. We would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded June 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2014</t>
+  </si>
+  <si>
+    <t>We were in Denver visiting family with our two children and infant.  We had a two queen bed suite and it was nice and roomy. There was a portable crib in our room upon request. The room was clean and the beds were comfortable. There was a mini fridge, microwave and sink in room. The bathroom was also clean and nice size, only wish it had double sinks. The staff was very friendly and helpful. We also enjoyed the indoor pool during our stay. The free breakfast was good...eggs, sausage, pancakes, muffins, yogurt, fruit, biscuits and gravy, cereals and different juices, teas and coffee. We would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r207039509-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>207039509</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>good location</t>
+  </si>
+  <si>
+    <t>this hotel was good for checking out denver and attending the rockies baseball...........only complaint is that was constantly listening to doors slammed .......hotel needs to fix this problem........other wise was a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>this hotel was good for checking out denver and attending the rockies baseball...........only complaint is that was constantly listening to doors slammed .......hotel needs to fix this problem........other wise was a nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r204127182-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>204127182</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Nice and New</t>
+  </si>
+  <si>
+    <t>We stayed here for the State swim meet.  We've come up to Thorton several times and stayed at a variety of hotels with some pretty bad experiences.  This was not one.  This hotel is new, the staff is friendly, rooms are good sized and clean, beds comfy, free breakfast - available early enough for the early morning swimmers, free wifi, modern decor, good location.  We arrived early and they let us bring our lunch into the breakfast area, eat and hang out while we waited for our rooms.  No complaints.   We already have our reservations for the next meet at the end of May!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for the State swim meet.  We've come up to Thorton several times and stayed at a variety of hotels with some pretty bad experiences.  This was not one.  This hotel is new, the staff is friendly, rooms are good sized and clean, beds comfy, free breakfast - available early enough for the early morning swimmers, free wifi, modern decor, good location.  We arrived early and they let us bring our lunch into the breakfast area, eat and hang out while we waited for our rooms.  No complaints.   We already have our reservations for the next meet at the end of May!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r203223703-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>203223703</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>New, clean, comfortable</t>
+  </si>
+  <si>
+    <t>I needed to stay at a hotel for one night during a recent move in Thornton and knew this hotel was recently built. Looks and feels brand new. Clean, modern, nicely decorated rooms. Bed was comfortable with nice bedding and lots of pillows. Bathroom was spacious and clean. Check-in/check-out was a breeze. Front desk was friendly. Good breakfast and free parking, free WiFi too. I paid $99 for one night. There's an Applebee's across the street and a new shopping center opening up soon with a Panera Bread, Jamba Juice, steakhouse and other restaurants (should be open May). Overall a very good choice and I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I needed to stay at a hotel for one night during a recent move in Thornton and knew this hotel was recently built. Looks and feels brand new. Clean, modern, nicely decorated rooms. Bed was comfortable with nice bedding and lots of pillows. Bathroom was spacious and clean. Check-in/check-out was a breeze. Front desk was friendly. Good breakfast and free parking, free WiFi too. I paid $99 for one night. There's an Applebee's across the street and a new shopping center opening up soon with a Panera Bread, Jamba Juice, steakhouse and other restaurants (should be open May). Overall a very good choice and I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r200084885-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>200084885</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>Since we arrived late at Denver Airport I just searched for a room with good ratings/amenities for the kids. I got the room at hotwire for what turned out to be not so much under the regular rate (a bit surprising as really a very good hotel). Lobby, elevator, hallways, rooms,baths are all in top shape, or new or renovated. We got a fourth floor room towards the back, the window overlooking a little creek (and ok that adjacent upscale business area). The night clerk was amazing even offered to close the pool a few minutes later for the kids (we already arrived close to 11pm and it was still open). Breakfast had waffles (yes like everywhere) but also muffins, bagels, healthy!cereal, .Cons:I was so impressed that I wanted to know and remembered a little trick I had seen a long time. Checking on top of the mirrors and doors revealed -yes- a thin layer of dust.MoreShow less</t>
+  </si>
+  <si>
+    <t>tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Since we arrived late at Denver Airport I just searched for a room with good ratings/amenities for the kids. I got the room at hotwire for what turned out to be not so much under the regular rate (a bit surprising as really a very good hotel). Lobby, elevator, hallways, rooms,baths are all in top shape, or new or renovated. We got a fourth floor room towards the back, the window overlooking a little creek (and ok that adjacent upscale business area). The night clerk was amazing even offered to close the pool a few minutes later for the kids (we already arrived close to 11pm and it was still open). Breakfast had waffles (yes like everywhere) but also muffins, bagels, healthy!cereal, .Cons:I was so impressed that I wanted to know and remembered a little trick I had seen a long time. Checking on top of the mirrors and doors revealed -yes- a thin layer of dust.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r184927845-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>184927845</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I usually book a hotel in north Denver.  This hotel is near restaurants, budget hotels and a Starbucks right off of I-25, so it's convenient.  A young man named Luke checked us in.  He was very polite and efficient.  The room was clean and comfortable.  The bed was comfortable and the linens were new.  The furnishings in the room were new.  There was a fridge in the room to store snacks.  There was a wedding party staying at this hotel the same weekend I was there. (We saw a group of bridesmaids exit a room.) There were also a lot of guests in town for a Broncos game. (Lots of #18 Bronco jerseys)  But the hotel was very quiet.  The staff was friendly; I was greeted by housekeeping and a maintenance man.  I used the workout room and liked the equipment provided.  I used the elliptical machine and recumbent bike; they were very easy to use.  I didn't use the treadmill.  Breakfast had the standard options of bagel, muffins, cereals, juices scrambled eggs, sausage gravy and a pancake machine.
+There is one elevator, which can be slow.  We didn't use Wi-Fi, but found the internet connection was fast.  The quirks about this hotel is really beyond management's control.  When we got to our room, there was a man standing outside his room with no shirt on.  He seemed embarrassed and made awkward small talk and said his buddy was getting...I usually book a hotel in north Denver.  This hotel is near restaurants, budget hotels and a Starbucks right off of I-25, so it's convenient.  A young man named Luke checked us in.  He was very polite and efficient.  The room was clean and comfortable.  The bed was comfortable and the linens were new.  The furnishings in the room were new.  There was a fridge in the room to store snacks.  There was a wedding party staying at this hotel the same weekend I was there. (We saw a group of bridesmaids exit a room.) There were also a lot of guests in town for a Broncos game. (Lots of #18 Bronco jerseys)  But the hotel was very quiet.  The staff was friendly; I was greeted by housekeeping and a maintenance man.  I used the workout room and liked the equipment provided.  I used the elliptical machine and recumbent bike; they were very easy to use.  I didn't use the treadmill.  Breakfast had the standard options of bagel, muffins, cereals, juices scrambled eggs, sausage gravy and a pancake machine.There is one elevator, which can be slow.  We didn't use Wi-Fi, but found the internet connection was fast.  The quirks about this hotel is really beyond management's control.  When we got to our room, there was a man standing outside his room with no shirt on.  He seemed embarrassed and made awkward small talk and said his buddy was getting him a key (who we saw at check-in).  There were always people sitting outside the main door smoking.  But generally the vibe at this hotel was good.  Maybe because guests were in town for a wedding and football game, so guests seemed generally happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Ross R, Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>I usually book a hotel in north Denver.  This hotel is near restaurants, budget hotels and a Starbucks right off of I-25, so it's convenient.  A young man named Luke checked us in.  He was very polite and efficient.  The room was clean and comfortable.  The bed was comfortable and the linens were new.  The furnishings in the room were new.  There was a fridge in the room to store snacks.  There was a wedding party staying at this hotel the same weekend I was there. (We saw a group of bridesmaids exit a room.) There were also a lot of guests in town for a Broncos game. (Lots of #18 Bronco jerseys)  But the hotel was very quiet.  The staff was friendly; I was greeted by housekeeping and a maintenance man.  I used the workout room and liked the equipment provided.  I used the elliptical machine and recumbent bike; they were very easy to use.  I didn't use the treadmill.  Breakfast had the standard options of bagel, muffins, cereals, juices scrambled eggs, sausage gravy and a pancake machine.
+There is one elevator, which can be slow.  We didn't use Wi-Fi, but found the internet connection was fast.  The quirks about this hotel is really beyond management's control.  When we got to our room, there was a man standing outside his room with no shirt on.  He seemed embarrassed and made awkward small talk and said his buddy was getting...I usually book a hotel in north Denver.  This hotel is near restaurants, budget hotels and a Starbucks right off of I-25, so it's convenient.  A young man named Luke checked us in.  He was very polite and efficient.  The room was clean and comfortable.  The bed was comfortable and the linens were new.  The furnishings in the room were new.  There was a fridge in the room to store snacks.  There was a wedding party staying at this hotel the same weekend I was there. (We saw a group of bridesmaids exit a room.) There were also a lot of guests in town for a Broncos game. (Lots of #18 Bronco jerseys)  But the hotel was very quiet.  The staff was friendly; I was greeted by housekeeping and a maintenance man.  I used the workout room and liked the equipment provided.  I used the elliptical machine and recumbent bike; they were very easy to use.  I didn't use the treadmill.  Breakfast had the standard options of bagel, muffins, cereals, juices scrambled eggs, sausage gravy and a pancake machine.There is one elevator, which can be slow.  We didn't use Wi-Fi, but found the internet connection was fast.  The quirks about this hotel is really beyond management's control.  When we got to our room, there was a man standing outside his room with no shirt on.  He seemed embarrassed and made awkward small talk and said his buddy was getting him a key (who we saw at check-in).  There were always people sitting outside the main door smoking.  But generally the vibe at this hotel was good.  Maybe because guests were in town for a wedding and football game, so guests seemed generally happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r178895697-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>178895697</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Some good and some bad</t>
+  </si>
+  <si>
+    <t>Had to stay in Denver for some classes at North Suburban Medical and this was one of the closest places to stay-about a 10-15 min drive in rush hour.  Check in was smooth, being a rewards member got me a free drink from their little vending area. The layout of the room was good-spacious.  I was on the bottom floor and had a little trouble getting the blackout curtains to stay completely shut, a little troubling being a single female traveler. Overall, the room seemed clean.  Then I noticed a spot near the bedside table- the carpet had a dried spot of smutz (for lack of a better word).  When something this simple is missed I often start wondering if there's anything else they forgot to clean.....Breakfast had a good variety and had hot items as well as the usual cereal and bagels.  It was a buffet breakfast, I didn't expect gourmet.  The bed was very comfortable and the hotel was quiet.  One of my biggest peeves now days is hotels charging for wifi. It is complimentary here (yay).  There are refrigerators in the room, also very handy to keep snacks and drinks in.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded October 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2013</t>
+  </si>
+  <si>
+    <t>Had to stay in Denver for some classes at North Suburban Medical and this was one of the closest places to stay-about a 10-15 min drive in rush hour.  Check in was smooth, being a rewards member got me a free drink from their little vending area. The layout of the room was good-spacious.  I was on the bottom floor and had a little trouble getting the blackout curtains to stay completely shut, a little troubling being a single female traveler. Overall, the room seemed clean.  Then I noticed a spot near the bedside table- the carpet had a dried spot of smutz (for lack of a better word).  When something this simple is missed I often start wondering if there's anything else they forgot to clean.....Breakfast had a good variety and had hot items as well as the usual cereal and bagels.  It was a buffet breakfast, I didn't expect gourmet.  The bed was very comfortable and the hotel was quiet.  One of my biggest peeves now days is hotels charging for wifi. It is complimentary here (yay).  There are refrigerators in the room, also very handy to keep snacks and drinks in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r178338005-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>178338005</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Front desk</t>
+  </si>
+  <si>
+    <t>First my husband had in issue with the credit card he was using to check in to the hotel  he apologized to Samantha who rolled her eyes and gave him a rude comment. He than came to me and addressed his concern with her bad attitude towards him. I went in gave her my card and she swiped it than handed me the key card. she didn't say anything to us that was nice or worth repeating. Samantha was the most rude front desk person we have ever encountered. My husband travels one week a month and will never stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>First my husband had in issue with the credit card he was using to check in to the hotel  he apologized to Samantha who rolled her eyes and gave him a rude comment. He than came to me and addressed his concern with her bad attitude towards him. I went in gave her my card and she swiped it than handed me the key card. she didn't say anything to us that was nice or worth repeating. Samantha was the most rude front desk person we have ever encountered. My husband travels one week a month and will never stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r171451935-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>171451935</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Good &amp; comfy stay</t>
+  </si>
+  <si>
+    <t>Keeping in mind that is a holiday inn express we had a great staying. Our room, located on the first floor next to the pool, was spacious and clean.The gentleman on the fron desk was very professional upon arrival and every time we ask for assistance.The breakfast was good and the quality of the food was extremely good.We spent one night only.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Keeping in mind that is a holiday inn express we had a great staying. Our room, located on the first floor next to the pool, was spacious and clean.The gentleman on the fron desk was very professional upon arrival and every time we ask for assistance.The breakfast was good and the quality of the food was extremely good.We spent one night only.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r169788042-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>169788042</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>new location and it shows</t>
+  </si>
+  <si>
+    <t>I stayed at this H.I. early in June and returned 3 weeks later again, because this pretty new location was very clean, rooms are comfortable and very well equipped, and it's a fairly quiet location. The Staff was always very friendly and helpful!!! Breakfast was good, too.A very good Hotel if you're in the northern Denver area, e.g. when flying into Denver and heading for Boulder. D.I.A. is only a 30 min. drive away, when taking 120th Ave and Tower Road (no toll!).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded August 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this H.I. early in June and returned 3 weeks later again, because this pretty new location was very clean, rooms are comfortable and very well equipped, and it's a fairly quiet location. The Staff was always very friendly and helpful!!! Breakfast was good, too.A very good Hotel if you're in the northern Denver area, e.g. when flying into Denver and heading for Boulder. D.I.A. is only a 30 min. drive away, when taking 120th Ave and Tower Road (no toll!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r168900257-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>168900257</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>We stayed here for a family reunion and the place was great and the service was good. The pool was a little on the cold side but was still used by several. We had a room for the family all to get together and visit plus we were able to have snacks and drinks to share.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for a family reunion and the place was great and the service was good. The pool was a little on the cold side but was still used by several. We had a room for the family all to get together and visit plus we were able to have snacks and drinks to share.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r165386209-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>165386209</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>Burr pool freezing</t>
+  </si>
+  <si>
+    <t>The disappointment...an ice cold swimming pool and lukewarm hot tub, indifferent staff. The first night we stayed I brought the pool/hot tub to the attention of the front desk. Others using the pool/hot tub were also unhappy with the water temperature. The next morning, Monday, as we left to explore Denver, I again mentioned the pool issue to the front desk who seemed completely unaware of any problem. I said I had told the desk person last night...to which this person said "oh, she is new and probably didn't know what to do, I will take care of it." Upon returning that night and again visiting the pool/hot tub we felt they were even colder than the night before. No adjustment was made to our bill upon checkout....the maintenance man was even trying to say it was 82 degrees yes they need a new thermometerMoreShow less</t>
+  </si>
+  <si>
+    <t>Tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded June 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2013</t>
+  </si>
+  <si>
+    <t>The disappointment...an ice cold swimming pool and lukewarm hot tub, indifferent staff. The first night we stayed I brought the pool/hot tub to the attention of the front desk. Others using the pool/hot tub were also unhappy with the water temperature. The next morning, Monday, as we left to explore Denver, I again mentioned the pool issue to the front desk who seemed completely unaware of any problem. I said I had told the desk person last night...to which this person said "oh, she is new and probably didn't know what to do, I will take care of it." Upon returning that night and again visiting the pool/hot tub we felt they were even colder than the night before. No adjustment was made to our bill upon checkout....the maintenance man was even trying to say it was 82 degrees yes they need a new thermometerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r164388048-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>164388048</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>After reading other reviews I was confident this would be a good place to stay during a quick two day visit to Denver.  Sadly, it did not work out as planned.  The good- Large, clean room, easy to find location, nice breakfast.  The disappointment...an ice cold swimming pool and lukewarm hot tub, indifferent staff.  The first night we stayed I brought the pool/hot tub to the attention of the front desk.  Others using the pool/hot tub were also unhappy with the water temperature.  The next morning, Sunday, as we left to explore Denver, I again mentioned the pool issue to the front desk who seemed completely unaware of any problem.  I said I had told the desk person last night...to which this person said "oh, she is new and probably didn't know what to do, I will take care of it."  Upon returning that night and again visiting the pool/hot tub we felt they were even colder than the night before.  No adjustment was made to our bill upon checkout....UNACCEPTABLE.  I had also requested a higher floor with a mountain view, as recommended from other reviews of this property, but we were given a second floor room with a great view of the hotels front overhang...we could see nothing!  Despite being a platinum member of Holiday Inn's Priority Club system there was no acceptable explanation or resolution to this issue.  Staff seemed indifferent to the fact we were Platinum members....After reading other reviews I was confident this would be a good place to stay during a quick two day visit to Denver.  Sadly, it did not work out as planned.  The good- Large, clean room, easy to find location, nice breakfast.  The disappointment...an ice cold swimming pool and lukewarm hot tub, indifferent staff.  The first night we stayed I brought the pool/hot tub to the attention of the front desk.  Others using the pool/hot tub were also unhappy with the water temperature.  The next morning, Sunday, as we left to explore Denver, I again mentioned the pool issue to the front desk who seemed completely unaware of any problem.  I said I had told the desk person last night...to which this person said "oh, she is new and probably didn't know what to do, I will take care of it."  Upon returning that night and again visiting the pool/hot tub we felt they were even colder than the night before.  No adjustment was made to our bill upon checkout....UNACCEPTABLE.  I had also requested a higher floor with a mountain view, as recommended from other reviews of this property, but we were given a second floor room with a great view of the hotels front overhang...we could see nothing!  Despite being a platinum member of Holiday Inn's Priority Club system there was no acceptable explanation or resolution to this issue.  Staff seemed indifferent to the fact we were Platinum members.The breakfast was good and quantity/quality very nice.  The beds, as others have noted, while comfortable might be a tad soft for some.  The bathroom was spacious and nicely appointed.  Denver hotels are typical large city overpriced so be prepared.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded June 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2013</t>
+  </si>
+  <si>
+    <t>After reading other reviews I was confident this would be a good place to stay during a quick two day visit to Denver.  Sadly, it did not work out as planned.  The good- Large, clean room, easy to find location, nice breakfast.  The disappointment...an ice cold swimming pool and lukewarm hot tub, indifferent staff.  The first night we stayed I brought the pool/hot tub to the attention of the front desk.  Others using the pool/hot tub were also unhappy with the water temperature.  The next morning, Sunday, as we left to explore Denver, I again mentioned the pool issue to the front desk who seemed completely unaware of any problem.  I said I had told the desk person last night...to which this person said "oh, she is new and probably didn't know what to do, I will take care of it."  Upon returning that night and again visiting the pool/hot tub we felt they were even colder than the night before.  No adjustment was made to our bill upon checkout....UNACCEPTABLE.  I had also requested a higher floor with a mountain view, as recommended from other reviews of this property, but we were given a second floor room with a great view of the hotels front overhang...we could see nothing!  Despite being a platinum member of Holiday Inn's Priority Club system there was no acceptable explanation or resolution to this issue.  Staff seemed indifferent to the fact we were Platinum members....After reading other reviews I was confident this would be a good place to stay during a quick two day visit to Denver.  Sadly, it did not work out as planned.  The good- Large, clean room, easy to find location, nice breakfast.  The disappointment...an ice cold swimming pool and lukewarm hot tub, indifferent staff.  The first night we stayed I brought the pool/hot tub to the attention of the front desk.  Others using the pool/hot tub were also unhappy with the water temperature.  The next morning, Sunday, as we left to explore Denver, I again mentioned the pool issue to the front desk who seemed completely unaware of any problem.  I said I had told the desk person last night...to which this person said "oh, she is new and probably didn't know what to do, I will take care of it."  Upon returning that night and again visiting the pool/hot tub we felt they were even colder than the night before.  No adjustment was made to our bill upon checkout....UNACCEPTABLE.  I had also requested a higher floor with a mountain view, as recommended from other reviews of this property, but we were given a second floor room with a great view of the hotels front overhang...we could see nothing!  Despite being a platinum member of Holiday Inn's Priority Club system there was no acceptable explanation or resolution to this issue.  Staff seemed indifferent to the fact we were Platinum members.The breakfast was good and quantity/quality very nice.  The beds, as others have noted, while comfortable might be a tad soft for some.  The bathroom was spacious and nicely appointed.  Denver hotels are typical large city overpriced so be prepared.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r162133451-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>162133451</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>After having a couple of bad hotel experiences this place was like heaven!  Everything was new and clean.  The room was spacious, the beds comfortable (with different pillow options).  The wi-fi was fast and easy to access.  The pool was clean and heated.  The staff was helpful.  The breakfast was fresh, hot, and delicious (lots of options!).  We appreciated that the breakfast room was open in the evening as well so there was a common space to hang out.  One morning the TV in the breakfast room was on an animal program which my kids loved and was a refreshing change from the news.  We wished the mini-fridge in the room had a freezer section, but that was something we were willing to overlook.  I would definitely recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>After having a couple of bad hotel experiences this place was like heaven!  Everything was new and clean.  The room was spacious, the beds comfortable (with different pillow options).  The wi-fi was fast and easy to access.  The pool was clean and heated.  The staff was helpful.  The breakfast was fresh, hot, and delicious (lots of options!).  We appreciated that the breakfast room was open in the evening as well so there was a common space to hang out.  One morning the TV in the breakfast room was on an animal program which my kids loved and was a refreshing change from the news.  We wished the mini-fridge in the room had a freezer section, but that was something we were willing to overlook.  I would definitely recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r156737325-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>156737325</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>What's that noise at night!?!</t>
+  </si>
+  <si>
+    <t>I was so tired when I arrived at the hotel but the two employees at the front desk were all smiles and quite friendly, this is welcome late at night when it's just enough to be able to get to your room and tuck into bed immediately.So, I got into bed and after fluffy up the pillows some I realized two things... the mattress was incredibly uncomfortable and there was this funny crinkling sound happening every time I moved.So, I get out of bed and put my hand on the over mattress sheet and lo-and-behold they installed a waterproof plastic covering below the sheet - that is what made noise, frankly I've never been in a hotel that had plastic covers on the mattresses!I was tired, so I slept.The next morning I asked the front desk to inform housekeeping to remove the plastic sheeting (which they did do).The room itself (outside of the bed) was spotless, very tidy - hats off to them. The sitting chair however was extremely hard and quite uncomfortable. Some wear and tear here and there - but overall that bad.I would not stay here again because the bed was uncomfortable and because there were also several other people from our group in the same hotel... I can only assume all the rooms have the same kind of beds because two other members of our group had a similar experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>I was so tired when I arrived at the hotel but the two employees at the front desk were all smiles and quite friendly, this is welcome late at night when it's just enough to be able to get to your room and tuck into bed immediately.So, I got into bed and after fluffy up the pillows some I realized two things... the mattress was incredibly uncomfortable and there was this funny crinkling sound happening every time I moved.So, I get out of bed and put my hand on the over mattress sheet and lo-and-behold they installed a waterproof plastic covering below the sheet - that is what made noise, frankly I've never been in a hotel that had plastic covers on the mattresses!I was tired, so I slept.The next morning I asked the front desk to inform housekeeping to remove the plastic sheeting (which they did do).The room itself (outside of the bed) was spotless, very tidy - hats off to them. The sitting chair however was extremely hard and quite uncomfortable. Some wear and tear here and there - but overall that bad.I would not stay here again because the bed was uncomfortable and because there were also several other people from our group in the same hotel... I can only assume all the rooms have the same kind of beds because two other members of our group had a similar experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r155760235-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>155760235</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Brand New Holiday Inn</t>
+  </si>
+  <si>
+    <t>this place is only 7 months old.  the room was incredible, breakfast was great, and super quiet location.  We stayed there traveling through Denver and it was perfect.  Great staff and super clean facility.  Spacious parking and wonderful breakfast included.  The room was huge.I would stay here again whenever I am in Denver.  This is what other Holiday Inn Expresses want to be when they grow up.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Ross R, Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>this place is only 7 months old.  the room was incredible, breakfast was great, and super quiet location.  We stayed there traveling through Denver and it was perfect.  Great staff and super clean facility.  Spacious parking and wonderful breakfast included.  The room was huge.I would stay here again whenever I am in Denver.  This is what other Holiday Inn Expresses want to be when they grow up.  Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r153744456-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>153744456</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Staff was very professional. This was a clean hotel and was about 17 miles from PDX. I had to leave before the breakfast area was opened but the coffee was good. Plenty of good restaurants around too. I would diffidently stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tammis A, General Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded March 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2013</t>
+  </si>
+  <si>
+    <t>Staff was very professional. This was a clean hotel and was about 17 miles from PDX. I had to leave before the breakfast area was opened but the coffee was good. Plenty of good restaurants around too. I would diffidently stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r152311251-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>152311251</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Good for Overnight Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for four nights while enjoying the area before a conference. I booked this Holiday Inn because of the good reviews and how recently it was built. I checked in just before 11 PM and was welcomed by a nice worker. I'll go ahead and say this is a good overnight hotel, but not one I would stay at again for an extended period of time. I had an issue with my allergies at this specific hotel. I figured it was the weather until I picked up my glasses and noticed they were covered in dust. Our room also had a dusty smell. After we left and moved to a hotel closer in to Denver (pre-planned, not because of hotel quality), the allergies cleared up. The bed was harder then other Holiday Inn locations and the internet was not reliable as it would disconnect at least twice an hour. This hotel is quite new and I do believe the dust smell was related to its recent construction. The staff were friendly and the overall facility quite nice. Multiple restaurants are located within walking distance. The view off to the west is magnificent!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Ross R, Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for four nights while enjoying the area before a conference. I booked this Holiday Inn because of the good reviews and how recently it was built. I checked in just before 11 PM and was welcomed by a nice worker. I'll go ahead and say this is a good overnight hotel, but not one I would stay at again for an extended period of time. I had an issue with my allergies at this specific hotel. I figured it was the weather until I picked up my glasses and noticed they were covered in dust. Our room also had a dusty smell. After we left and moved to a hotel closer in to Denver (pre-planned, not because of hotel quality), the allergies cleared up. The bed was harder then other Holiday Inn locations and the internet was not reliable as it would disconnect at least twice an hour. This hotel is quite new and I do believe the dust smell was related to its recent construction. The staff were friendly and the overall facility quite nice. Multiple restaurants are located within walking distance. The view off to the west is magnificent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r148697677-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>148697677</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>Christmas Visit</t>
+  </si>
+  <si>
+    <t>We stayed here over the Christmas holiday and for the price, there is nothing that beats HI Express. The room is clean, updated, and has everything you need. The bed is comfortable and love that you have a choice of pillow firmness. The TV had HBO and kids channels which is great.  Free breakfast is great too. We didn't use the pool, but it looked nice and warm in there :)I definitely would recommend this place and will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Ross R, Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here over the Christmas holiday and for the price, there is nothing that beats HI Express. The room is clean, updated, and has everything you need. The bed is comfortable and love that you have a choice of pillow firmness. The TV had HBO and kids channels which is great.  Free breakfast is great too. We didn't use the pool, but it looked nice and warm in there :)I definitely would recommend this place and will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r148358310-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>148358310</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Good and the Bad</t>
+  </si>
+  <si>
+    <t>Hotel appears new/renovated as others have posted, Room was small but nicely done and adequate. Breakfast spread was great and front lobby area was nice.Now The bad part, As a Platinum member , there was nothing special for me except a thank you and a bottle of beverage from fridge next t reception.You would assume that if the hotel parking lot shows almost empty on Holiday Sunday night, there would be a lot of rooms available. But I guess, No or may be there are invisible guests.I inquired at the front desk whether room was upgraded as a platinum, front desk glanced at my room key and " Due to our occupany level , we don't have any upgrade" Really?? Can't we do better than that. I checked in my room after that if the hotel was indeed so much occupied by invisible guests. But I could book almost everything for that day if I tried to make reservation.I have stayed at Bigger cities and many times on award stays and even then being upgraded. But I guess the the HIX working is different.If you are just a regular visitor, then I didn't find anything to complain but as Elite member, you can always explore your options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ross R, Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded January 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2013</t>
+  </si>
+  <si>
+    <t>Hotel appears new/renovated as others have posted, Room was small but nicely done and adequate. Breakfast spread was great and front lobby area was nice.Now The bad part, As a Platinum member , there was nothing special for me except a thank you and a bottle of beverage from fridge next t reception.You would assume that if the hotel parking lot shows almost empty on Holiday Sunday night, there would be a lot of rooms available. But I guess, No or may be there are invisible guests.I inquired at the front desk whether room was upgraded as a platinum, front desk glanced at my room key and " Due to our occupany level , we don't have any upgrade" Really?? Can't we do better than that. I checked in my room after that if the hotel was indeed so much occupied by invisible guests. But I could book almost everything for that day if I tried to make reservation.I have stayed at Bigger cities and many times on award stays and even then being upgraded. But I guess the the HIX working is different.If you are just a regular visitor, then I didn't find anything to complain but as Elite member, you can always explore your options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r145842150-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>145842150</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Recently renovated- looks brand new!!!!</t>
+  </si>
+  <si>
+    <t>Holiday Inn is ...well, Holiday Inn.  A great room for a reasonable price and best of all... NO SURPRISES!  This is why I am so loyal to this brand because I always know what I'm going to get.  At this location, however, it was like being the first guest to a brand new hotel. The renovation is wonderful. One curve though, the charged you a $10 fee for the snack bar whether you use it our not.  This was a first, and if its a trend, I don't like it. I'll be contacting corporate about this next week for clarification. Other than that I highly recommend this hotel!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Ross R, Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2012</t>
+  </si>
+  <si>
+    <t>Holiday Inn is ...well, Holiday Inn.  A great room for a reasonable price and best of all... NO SURPRISES!  This is why I am so loyal to this brand because I always know what I'm going to get.  At this location, however, it was like being the first guest to a brand new hotel. The renovation is wonderful. One curve though, the charged you a $10 fee for the snack bar whether you use it our not.  This was a first, and if its a trend, I don't like it. I'll be contacting corporate about this next week for clarification. Other than that I highly recommend this hotel!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r144338496-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>144338496</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel - Poor Customer Service</t>
+  </si>
+  <si>
+    <t>We stayed in the Holiday Inn Express &amp; Suites Denver North for 4 days.  The hotel is brand new and very clean.  The rooms are small but nice.  The only problem we had was the front desk staff.  They were rude, inattentice and gave very poor customer service.  We would probably stay elsewhere next time.  There are less expensive hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Ross R, Manager at Holiday Inn Express &amp; Suites Denver North, responded to this reviewResponded November 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2012</t>
+  </si>
+  <si>
+    <t>We stayed in the Holiday Inn Express &amp; Suites Denver North for 4 days.  The hotel is brand new and very clean.  The rooms are small but nice.  The only problem we had was the front desk staff.  They were rude, inattentice and gave very poor customer service.  We would probably stay elsewhere next time.  There are less expensive hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d3498205-r141890165-Holiday_Inn_Express_Suites_Denver_North-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>141890165</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>Awesome Hotel!!!</t>
+  </si>
+  <si>
+    <t>Brand New Hotel!!! I stayed here last month for 2 nights the Front desk staff was great &amp; very helpful, breakfast was awesome, the hotel was VERY clean. I usually stay at the Doubletree nice hotel but i really like this one! I highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Brand New Hotel!!! I stayed here last month for 2 nights the Front desk staff was great &amp; very helpful, breakfast was awesome, the hotel was VERY clean. I usually stay at the Doubletree nice hotel but i really like this one! I highly recommend staying here.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2397,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2429,4982 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+      <c r="X19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>223</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>215</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>248</v>
+      </c>
+      <c r="O28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>258</v>
+      </c>
+      <c r="X29" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>281</v>
+      </c>
+      <c r="X32" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>307</v>
+      </c>
+      <c r="X35" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>315</v>
+      </c>
+      <c r="O36" t="s">
+        <v>103</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>316</v>
+      </c>
+      <c r="X36" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>333</v>
+      </c>
+      <c r="X38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>341</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>342</v>
+      </c>
+      <c r="X39" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>341</v>
+      </c>
+      <c r="O40" t="s">
+        <v>223</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>350</v>
+      </c>
+      <c r="X40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>355</v>
+      </c>
+      <c r="K41" t="s">
+        <v>356</v>
+      </c>
+      <c r="L41" t="s">
+        <v>357</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>359</v>
+      </c>
+      <c r="X41" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>363</v>
+      </c>
+      <c r="J42" t="s">
+        <v>364</v>
+      </c>
+      <c r="K42" t="s">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s">
+        <v>366</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>367</v>
+      </c>
+      <c r="O42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>368</v>
+      </c>
+      <c r="X42" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s">
+        <v>375</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>367</v>
+      </c>
+      <c r="O43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>376</v>
+      </c>
+      <c r="X43" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K44" t="s">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>385</v>
+      </c>
+      <c r="X44" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>389</v>
+      </c>
+      <c r="J45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>384</v>
+      </c>
+      <c r="O45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>393</v>
+      </c>
+      <c r="X45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>397</v>
+      </c>
+      <c r="J46" t="s">
+        <v>398</v>
+      </c>
+      <c r="K46" t="s">
+        <v>399</v>
+      </c>
+      <c r="L46" t="s">
+        <v>400</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>393</v>
+      </c>
+      <c r="X46" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>404</v>
+      </c>
+      <c r="J47" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L47" t="s">
+        <v>407</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>408</v>
+      </c>
+      <c r="X47" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>401</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>416</v>
+      </c>
+      <c r="X48" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>424</v>
+      </c>
+      <c r="O49" t="s">
+        <v>103</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>425</v>
+      </c>
+      <c r="X49" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>428</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>429</v>
+      </c>
+      <c r="J50" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" t="s">
+        <v>430</v>
+      </c>
+      <c r="L50" t="s">
+        <v>431</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>424</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>425</v>
+      </c>
+      <c r="X50" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>434</v>
+      </c>
+      <c r="J51" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" t="s">
+        <v>436</v>
+      </c>
+      <c r="L51" t="s">
+        <v>437</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>438</v>
+      </c>
+      <c r="X51" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>441</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>442</v>
+      </c>
+      <c r="J52" t="s">
+        <v>443</v>
+      </c>
+      <c r="K52" t="s">
+        <v>444</v>
+      </c>
+      <c r="L52" t="s">
+        <v>445</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>446</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>447</v>
+      </c>
+      <c r="X52" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>451</v>
+      </c>
+      <c r="J53" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" t="s">
+        <v>453</v>
+      </c>
+      <c r="L53" t="s">
+        <v>454</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>455</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>456</v>
+      </c>
+      <c r="X53" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>463</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>455</v>
+      </c>
+      <c r="O54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>464</v>
+      </c>
+      <c r="X54" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>467</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>468</v>
+      </c>
+      <c r="J55" t="s">
+        <v>469</v>
+      </c>
+      <c r="K55" t="s">
+        <v>470</v>
+      </c>
+      <c r="L55" t="s">
+        <v>471</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>446</v>
+      </c>
+      <c r="O55" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>472</v>
+      </c>
+      <c r="X55" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>475</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>476</v>
+      </c>
+      <c r="J56" t="s">
+        <v>477</v>
+      </c>
+      <c r="K56" t="s">
+        <v>478</v>
+      </c>
+      <c r="L56" t="s">
+        <v>479</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>480</v>
+      </c>
+      <c r="O56" t="s">
+        <v>103</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>472</v>
+      </c>
+      <c r="X56" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>482</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>483</v>
+      </c>
+      <c r="J57" t="s">
+        <v>484</v>
+      </c>
+      <c r="K57" t="s">
+        <v>485</v>
+      </c>
+      <c r="L57" t="s">
+        <v>486</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>487</v>
+      </c>
+      <c r="O57" t="s">
+        <v>223</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>472</v>
+      </c>
+      <c r="X57" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>489</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>490</v>
+      </c>
+      <c r="J58" t="s">
+        <v>491</v>
+      </c>
+      <c r="K58" t="s">
+        <v>492</v>
+      </c>
+      <c r="L58" t="s">
+        <v>493</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>487</v>
+      </c>
+      <c r="O58" t="s">
+        <v>103</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>494</v>
+      </c>
+      <c r="X58" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>502</v>
+      </c>
+      <c r="O59" t="s">
+        <v>180</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>503</v>
+      </c>
+      <c r="X59" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>506</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>507</v>
+      </c>
+      <c r="J60" t="s">
+        <v>508</v>
+      </c>
+      <c r="K60" t="s">
+        <v>509</v>
+      </c>
+      <c r="L60" t="s">
+        <v>510</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>511</v>
+      </c>
+      <c r="O60" t="s">
+        <v>223</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>512</v>
+      </c>
+      <c r="X60" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>515</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>516</v>
+      </c>
+      <c r="J61" t="s">
+        <v>517</v>
+      </c>
+      <c r="K61" t="s">
+        <v>518</v>
+      </c>
+      <c r="L61" t="s">
+        <v>519</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>511</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>520</v>
+      </c>
+      <c r="X61" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>523</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>524</v>
+      </c>
+      <c r="J62" t="s">
+        <v>525</v>
+      </c>
+      <c r="K62" t="s">
+        <v>526</v>
+      </c>
+      <c r="L62" t="s">
+        <v>527</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>528</v>
+      </c>
+      <c r="O62" t="s">
+        <v>103</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>529</v>
+      </c>
+      <c r="X62" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>532</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>533</v>
+      </c>
+      <c r="J63" t="s">
+        <v>534</v>
+      </c>
+      <c r="K63" t="s">
+        <v>535</v>
+      </c>
+      <c r="L63" t="s">
+        <v>536</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>537</v>
+      </c>
+      <c r="O63" t="s">
+        <v>223</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>538</v>
+      </c>
+      <c r="X63" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>541</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>542</v>
+      </c>
+      <c r="J64" t="s">
+        <v>543</v>
+      </c>
+      <c r="K64" t="s">
+        <v>544</v>
+      </c>
+      <c r="L64" t="s">
+        <v>545</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>546</v>
+      </c>
+      <c r="O64" t="s">
+        <v>103</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>529</v>
+      </c>
+      <c r="X64" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>548</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>549</v>
+      </c>
+      <c r="J65" t="s">
+        <v>550</v>
+      </c>
+      <c r="K65" t="s">
+        <v>551</v>
+      </c>
+      <c r="L65" t="s">
+        <v>552</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>537</v>
+      </c>
+      <c r="O65" t="s">
+        <v>103</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>553</v>
+      </c>
+      <c r="X65" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>556</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>557</v>
+      </c>
+      <c r="J66" t="s">
+        <v>558</v>
+      </c>
+      <c r="K66" t="s">
+        <v>559</v>
+      </c>
+      <c r="L66" t="s">
+        <v>560</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>537</v>
+      </c>
+      <c r="O66" t="s">
+        <v>103</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>561</v>
+      </c>
+      <c r="X66" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>564</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>565</v>
+      </c>
+      <c r="J67" t="s">
+        <v>566</v>
+      </c>
+      <c r="K67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L67" t="s">
+        <v>567</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>568</v>
+      </c>
+      <c r="O67" t="s">
+        <v>103</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>569</v>
+      </c>
+      <c r="X67" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>572</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>573</v>
+      </c>
+      <c r="J68" t="s">
+        <v>574</v>
+      </c>
+      <c r="K68" t="s">
+        <v>575</v>
+      </c>
+      <c r="L68" t="s">
+        <v>576</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>577</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>578</v>
+      </c>
+      <c r="X68" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>581</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>582</v>
+      </c>
+      <c r="J69" t="s">
+        <v>583</v>
+      </c>
+      <c r="K69" t="s">
+        <v>584</v>
+      </c>
+      <c r="L69" t="s">
+        <v>585</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>586</v>
+      </c>
+      <c r="O69" t="s">
+        <v>103</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>587</v>
+      </c>
+      <c r="X69" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>590</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>591</v>
+      </c>
+      <c r="J70" t="s">
+        <v>592</v>
+      </c>
+      <c r="K70" t="s">
+        <v>593</v>
+      </c>
+      <c r="L70" t="s">
+        <v>594</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>595</v>
+      </c>
+      <c r="X70" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>598</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>599</v>
+      </c>
+      <c r="J71" t="s">
+        <v>600</v>
+      </c>
+      <c r="K71" t="s">
+        <v>601</v>
+      </c>
+      <c r="L71" t="s">
+        <v>602</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>603</v>
+      </c>
+      <c r="O71" t="s">
+        <v>223</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>604</v>
+      </c>
+      <c r="X71" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>607</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>608</v>
+      </c>
+      <c r="J72" t="s">
+        <v>609</v>
+      </c>
+      <c r="K72" t="s">
+        <v>610</v>
+      </c>
+      <c r="L72" t="s">
+        <v>611</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>612</v>
+      </c>
+      <c r="O72" t="s">
+        <v>103</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>613</v>
+      </c>
+      <c r="X72" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>616</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>617</v>
+      </c>
+      <c r="J73" t="s">
+        <v>618</v>
+      </c>
+      <c r="K73" t="s">
+        <v>619</v>
+      </c>
+      <c r="L73" t="s">
+        <v>620</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>612</v>
+      </c>
+      <c r="O73" t="s">
+        <v>103</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>621</v>
+      </c>
+      <c r="X73" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>624</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>625</v>
+      </c>
+      <c r="J74" t="s">
+        <v>626</v>
+      </c>
+      <c r="K74" t="s">
+        <v>627</v>
+      </c>
+      <c r="L74" t="s">
+        <v>628</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>629</v>
+      </c>
+      <c r="X74" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>632</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>633</v>
+      </c>
+      <c r="J75" t="s">
+        <v>634</v>
+      </c>
+      <c r="K75" t="s">
+        <v>635</v>
+      </c>
+      <c r="L75" t="s">
+        <v>636</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>637</v>
+      </c>
+      <c r="O75" t="s">
+        <v>103</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>638</v>
+      </c>
+      <c r="X75" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59878</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>641</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>642</v>
+      </c>
+      <c r="J76" t="s">
+        <v>643</v>
+      </c>
+      <c r="K76" t="s">
+        <v>644</v>
+      </c>
+      <c r="L76" t="s">
+        <v>645</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>646</v>
+      </c>
+      <c r="O76" t="s">
+        <v>223</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>638</v>
+      </c>
+      <c r="X76" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
